--- a/static/ModeloFactura/001-044-78055.xlsx
+++ b/static/ModeloFactura/001-044-78055.xlsx
@@ -2759,19 +2759,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>65943</xdr:colOff>
+      <xdr:colOff>73269</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>43963</xdr:rowOff>
+      <xdr:rowOff>139209</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>82460</xdr:colOff>
+      <xdr:colOff>102577</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>65944</xdr:rowOff>
+      <xdr:rowOff>83166</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagen 11"/>
+        <xdr:cNvPr id="10" name="Imagen 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2784,13 +2784,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect b="6963"/>
+        <a:srcRect t="9593"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6052039" y="6279175"/>
-          <a:ext cx="1628440" cy="2447192"/>
+          <a:off x="6059365" y="6374421"/>
+          <a:ext cx="1641231" cy="2369168"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2802,24 +2802,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>139212</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
+      <xdr:colOff>65943</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>183172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>7327</xdr:colOff>
+      <xdr:colOff>29309</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>163178</xdr:rowOff>
+      <xdr:rowOff>170926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Imagen 12"/>
+        <xdr:cNvPr id="11" name="Imagen 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -2827,14 +2827,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect t="3093"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1458058" y="6425712"/>
-          <a:ext cx="3949211" cy="1254889"/>
+          <a:off x="1384789" y="6418384"/>
+          <a:ext cx="4044462" cy="1269965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3111,8 +3110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:I38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AC32" sqref="AC32:AK32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -4851,9 +4850,7 @@
       <c r="Z32" s="44"/>
       <c r="AA32" s="44"/>
       <c r="AB32" s="44"/>
-      <c r="AC32" s="45">
-        <v>0</v>
-      </c>
+      <c r="AC32" s="45"/>
       <c r="AD32" s="45"/>
       <c r="AE32" s="45"/>
       <c r="AF32" s="45"/>
@@ -5062,7 +5059,7 @@
     </row>
     <row r="36" spans="1:55" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="202">
-        <v>228</v>
+        <v>258.2</v>
       </c>
       <c r="B36" s="203"/>
       <c r="C36" s="203"/>
@@ -5187,7 +5184,7 @@
     </row>
     <row r="38" spans="1:55" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="204">
-        <v>191.8</v>
+        <v>228</v>
       </c>
       <c r="B38" s="205"/>
       <c r="C38" s="205"/>
@@ -5312,7 +5309,7 @@
     </row>
     <row r="40" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="204">
-        <v>36.200000000000003</v>
+        <v>30.2</v>
       </c>
       <c r="B40" s="205"/>
       <c r="C40" s="205"/>
@@ -5434,7 +5431,7 @@
     </row>
     <row r="42" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="204">
-        <v>33</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="B42" s="205"/>
       <c r="C42" s="205"/>

--- a/static/ModeloFactura/001-044-78055.xlsx
+++ b/static/ModeloFactura/001-044-78055.xlsx
@@ -468,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="107">
+  <borders count="108">
     <border>
       <left/>
       <right/>
@@ -1666,12 +1666,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.39982299264503923"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="8" tint="0.39982299264503923"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1762,144 +1773,150 @@
     <xf numFmtId="0" fontId="25" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2364,16 +2381,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>49479</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>26774</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>130075</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>70735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>48946</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>64273</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>129542</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>115561</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2405,7 +2422,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6621729" y="9192755"/>
+          <a:off x="2474690" y="9903466"/>
           <a:ext cx="585621" cy="411172"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2740,39 +2757,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9856</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>36929</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>168519</xdr:rowOff>
+      <xdr:rowOff>29307</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>102577</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>151879</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>109904</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>103703</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Imagen 12"/>
+        <xdr:cNvPr id="12" name="Imagen 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect t="3983" b="1"/>
+        <a:srcRect t="29918" r="67608" b="5546"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1182164" y="6403731"/>
-          <a:ext cx="4320355" cy="1265571"/>
+          <a:off x="5729948" y="6264519"/>
+          <a:ext cx="2271052" cy="3034472"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2783,39 +2800,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>117232</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>29308</xdr:rowOff>
+      <xdr:rowOff>183171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>29307</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>11699</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>124558</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Imagen 13"/>
+        <xdr:cNvPr id="13" name="Imagen 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect b="4901"/>
+        <a:srcRect t="11343" b="1906"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6081345" y="6264520"/>
-          <a:ext cx="1692520" cy="2568794"/>
+          <a:off x="1289540" y="6418383"/>
+          <a:ext cx="4234960" cy="1230925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3092,8 +3109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AL41" sqref="AL41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -3112,22 +3129,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -3139,54 +3156,54 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="124" t="s">
+      <c r="Z1" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" s="124"/>
-      <c r="AB1" s="124"/>
-      <c r="AC1" s="124"/>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="124"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="124"/>
-      <c r="AH1" s="124"/>
-      <c r="AI1" s="124"/>
-      <c r="AJ1" s="124"/>
-      <c r="AK1" s="124"/>
-      <c r="AL1" s="124"/>
-      <c r="AM1" s="124"/>
-      <c r="AN1" s="124"/>
-      <c r="AO1" s="124"/>
-      <c r="AP1" s="124"/>
-      <c r="AQ1" s="124"/>
-      <c r="AR1" s="124"/>
-      <c r="AS1" s="124"/>
-      <c r="AT1" s="124"/>
-      <c r="AU1" s="124"/>
-      <c r="AV1" s="124"/>
-      <c r="AW1" s="124"/>
-      <c r="AX1" s="124"/>
-      <c r="AY1" s="124"/>
-      <c r="AZ1" s="124"/>
-      <c r="BA1" s="124"/>
-      <c r="BB1" s="124"/>
-      <c r="BC1" s="124"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="126"/>
+      <c r="AL1" s="126"/>
+      <c r="AM1" s="126"/>
+      <c r="AN1" s="126"/>
+      <c r="AO1" s="126"/>
+      <c r="AP1" s="126"/>
+      <c r="AQ1" s="126"/>
+      <c r="AR1" s="126"/>
+      <c r="AS1" s="126"/>
+      <c r="AT1" s="126"/>
+      <c r="AU1" s="126"/>
+      <c r="AV1" s="126"/>
+      <c r="AW1" s="126"/>
+      <c r="AX1" s="126"/>
+      <c r="AY1" s="126"/>
+      <c r="AZ1" s="126"/>
+      <c r="BA1" s="126"/>
+      <c r="BB1" s="126"/>
+      <c r="BC1" s="126"/>
     </row>
     <row r="2" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="140"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
+      <c r="A2" s="142"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -3231,20 +3248,20 @@
       <c r="BC2" s="45"/>
     </row>
     <row r="3" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="140"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="140"/>
+      <c r="A3" s="142"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
       <c r="Q3" s="27"/>
@@ -3280,20 +3297,20 @@
       <c r="BC3" s="3"/>
     </row>
     <row r="4" spans="1:55" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
+      <c r="A4" s="142"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="142"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
@@ -3337,20 +3354,20 @@
       <c r="BC4" s="48"/>
     </row>
     <row r="5" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="140"/>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
+      <c r="A5" s="142"/>
+      <c r="B5" s="142"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="142"/>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
       <c r="Q5" s="27"/>
@@ -3385,20 +3402,20 @@
       <c r="AV5" s="37"/>
     </row>
     <row r="6" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="140"/>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="140"/>
-      <c r="N6" s="140"/>
+      <c r="A6" s="142"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="142"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
@@ -3443,22 +3460,22 @@
       <c r="BC6" s="44"/>
     </row>
     <row r="7" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="140"/>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
-      <c r="N7" s="140"/>
+      <c r="A7" s="142"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="142"/>
       <c r="O7" s="30"/>
-      <c r="P7" s="135" t="s">
+      <c r="P7" s="137" t="s">
         <v>50</v>
       </c>
       <c r="Q7" s="50"/>
@@ -3467,7 +3484,7 @@
       <c r="T7" s="50"/>
       <c r="U7" s="50"/>
       <c r="V7" s="50"/>
-      <c r="W7" s="136"/>
+      <c r="W7" s="138"/>
       <c r="X7" s="39"/>
       <c r="Y7" s="27"/>
       <c r="Z7" s="27"/>
@@ -3487,31 +3504,31 @@
       <c r="AV7" s="37"/>
     </row>
     <row r="8" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="140"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="140"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="140"/>
-      <c r="N8" s="140"/>
+      <c r="A8" s="142"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="142"/>
       <c r="O8" s="19"/>
-      <c r="P8" s="137">
+      <c r="P8" s="139">
         <v>1</v>
       </c>
-      <c r="Q8" s="138"/>
-      <c r="R8" s="138"/>
-      <c r="S8" s="138"/>
-      <c r="T8" s="138"/>
-      <c r="U8" s="138"/>
-      <c r="V8" s="138"/>
-      <c r="W8" s="139"/>
+      <c r="Q8" s="140"/>
+      <c r="R8" s="140"/>
+      <c r="S8" s="140"/>
+      <c r="T8" s="140"/>
+      <c r="U8" s="140"/>
+      <c r="V8" s="140"/>
+      <c r="W8" s="141"/>
       <c r="X8" s="19"/>
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
@@ -3541,20 +3558,20 @@
       <c r="BC8" s="44"/>
     </row>
     <row r="9" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="140"/>
-      <c r="B9" s="140"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="140"/>
-      <c r="N9" s="140"/>
+      <c r="A9" s="142"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="142"/>
+      <c r="N9" s="142"/>
       <c r="O9" s="31"/>
       <c r="Y9" s="31"/>
       <c r="Z9" s="31"/>
@@ -3565,20 +3582,20 @@
       <c r="AE9" s="31"/>
     </row>
     <row r="10" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="140"/>
-      <c r="B10" s="140"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="140"/>
-      <c r="L10" s="140"/>
-      <c r="M10" s="140"/>
-      <c r="N10" s="140"/>
+      <c r="A10" s="142"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="142"/>
+      <c r="N10" s="142"/>
       <c r="O10" s="31"/>
       <c r="P10" s="49" t="s">
         <v>64</v>
@@ -3619,29 +3636,29 @@
       <c r="BC10" s="68"/>
     </row>
     <row r="11" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="140"/>
-      <c r="B11" s="140"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="140"/>
-      <c r="N11" s="140"/>
+      <c r="A11" s="142"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="142"/>
+      <c r="L11" s="142"/>
+      <c r="M11" s="142"/>
+      <c r="N11" s="142"/>
       <c r="O11" s="31"/>
-      <c r="P11" s="137"/>
-      <c r="Q11" s="138"/>
-      <c r="R11" s="138"/>
-      <c r="S11" s="138"/>
-      <c r="T11" s="138"/>
-      <c r="U11" s="138"/>
-      <c r="V11" s="138"/>
-      <c r="W11" s="138"/>
+      <c r="P11" s="139"/>
+      <c r="Q11" s="140"/>
+      <c r="R11" s="140"/>
+      <c r="S11" s="140"/>
+      <c r="T11" s="140"/>
+      <c r="U11" s="140"/>
+      <c r="V11" s="140"/>
+      <c r="W11" s="140"/>
       <c r="X11" s="39"/>
       <c r="Y11" s="31"/>
       <c r="Z11" s="31"/>
@@ -3650,25 +3667,25 @@
       <c r="AC11" s="31"/>
       <c r="AD11" s="31"/>
       <c r="AE11" s="31"/>
-      <c r="AM11" s="146" t="s">
+      <c r="AM11" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="AN11" s="146"/>
-      <c r="AO11" s="146"/>
-      <c r="AP11" s="146"/>
-      <c r="AQ11" s="146"/>
-      <c r="AR11" s="146"/>
-      <c r="AS11" s="146"/>
-      <c r="AT11" s="146"/>
-      <c r="AU11" s="146"/>
-      <c r="AV11" s="146"/>
-      <c r="AW11" s="146"/>
-      <c r="AX11" s="146"/>
-      <c r="AY11" s="146"/>
-      <c r="AZ11" s="146"/>
-      <c r="BA11" s="146"/>
-      <c r="BB11" s="146"/>
-      <c r="BC11" s="146"/>
+      <c r="AN11" s="148"/>
+      <c r="AO11" s="148"/>
+      <c r="AP11" s="148"/>
+      <c r="AQ11" s="148"/>
+      <c r="AR11" s="148"/>
+      <c r="AS11" s="148"/>
+      <c r="AT11" s="148"/>
+      <c r="AU11" s="148"/>
+      <c r="AV11" s="148"/>
+      <c r="AW11" s="148"/>
+      <c r="AX11" s="148"/>
+      <c r="AY11" s="148"/>
+      <c r="AZ11" s="148"/>
+      <c r="BA11" s="148"/>
+      <c r="BB11" s="148"/>
+      <c r="BC11" s="148"/>
     </row>
     <row r="12" spans="1:55" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O12" s="32"/>
@@ -3694,122 +3711,122 @@
       <c r="AJ12" s="38"/>
       <c r="AK12" s="38"/>
       <c r="AL12" s="38"/>
-      <c r="AM12" s="147"/>
-      <c r="AN12" s="147"/>
-      <c r="AO12" s="147"/>
-      <c r="AP12" s="147"/>
-      <c r="AQ12" s="147"/>
-      <c r="AR12" s="147"/>
-      <c r="AS12" s="147"/>
-      <c r="AT12" s="147"/>
-      <c r="AU12" s="147"/>
-      <c r="AV12" s="147"/>
-      <c r="AW12" s="147"/>
-      <c r="AX12" s="147"/>
-      <c r="AY12" s="147"/>
-      <c r="AZ12" s="147"/>
-      <c r="BA12" s="147"/>
-      <c r="BB12" s="147"/>
-      <c r="BC12" s="147"/>
+      <c r="AM12" s="149"/>
+      <c r="AN12" s="149"/>
+      <c r="AO12" s="149"/>
+      <c r="AP12" s="149"/>
+      <c r="AQ12" s="149"/>
+      <c r="AR12" s="149"/>
+      <c r="AS12" s="149"/>
+      <c r="AT12" s="149"/>
+      <c r="AU12" s="149"/>
+      <c r="AV12" s="149"/>
+      <c r="AW12" s="149"/>
+      <c r="AX12" s="149"/>
+      <c r="AY12" s="149"/>
+      <c r="AZ12" s="149"/>
+      <c r="BA12" s="149"/>
+      <c r="BB12" s="149"/>
+      <c r="BC12" s="149"/>
     </row>
     <row r="13" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="144" t="s">
+      <c r="A13" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="145"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="145"/>
-      <c r="L13" s="145"/>
-      <c r="M13" s="145"/>
-      <c r="N13" s="145"/>
-      <c r="O13" s="145"/>
-      <c r="P13" s="145"/>
-      <c r="Q13" s="145"/>
-      <c r="R13" s="145"/>
-      <c r="S13" s="145"/>
-      <c r="T13" s="145"/>
-      <c r="U13" s="145"/>
-      <c r="V13" s="145"/>
-      <c r="W13" s="145"/>
-      <c r="X13" s="145"/>
-      <c r="Y13" s="145"/>
-      <c r="Z13" s="145"/>
-      <c r="AA13" s="145"/>
-      <c r="AB13" s="145"/>
-      <c r="AC13" s="145"/>
-      <c r="AD13" s="145"/>
-      <c r="AE13" s="145"/>
-      <c r="AF13" s="145"/>
-      <c r="AG13" s="145"/>
-      <c r="AH13" s="145"/>
-      <c r="AI13" s="145"/>
-      <c r="AJ13" s="145"/>
-      <c r="AK13" s="145"/>
-      <c r="AL13" s="145"/>
-      <c r="AM13" s="145"/>
-      <c r="AN13" s="145"/>
-      <c r="AO13" s="145"/>
-      <c r="AP13" s="145"/>
-      <c r="AQ13" s="145"/>
-      <c r="AR13" s="145"/>
-      <c r="AS13" s="141"/>
-      <c r="AT13" s="141"/>
-      <c r="AU13" s="141"/>
-      <c r="AV13" s="141"/>
-      <c r="AW13" s="141"/>
-      <c r="AX13" s="141"/>
-      <c r="AY13" s="141"/>
-      <c r="AZ13" s="141"/>
-      <c r="BA13" s="141"/>
-      <c r="BB13" s="141"/>
-      <c r="BC13" s="142"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="147"/>
+      <c r="M13" s="147"/>
+      <c r="N13" s="147"/>
+      <c r="O13" s="147"/>
+      <c r="P13" s="147"/>
+      <c r="Q13" s="147"/>
+      <c r="R13" s="147"/>
+      <c r="S13" s="147"/>
+      <c r="T13" s="147"/>
+      <c r="U13" s="147"/>
+      <c r="V13" s="147"/>
+      <c r="W13" s="147"/>
+      <c r="X13" s="147"/>
+      <c r="Y13" s="147"/>
+      <c r="Z13" s="147"/>
+      <c r="AA13" s="147"/>
+      <c r="AB13" s="147"/>
+      <c r="AC13" s="147"/>
+      <c r="AD13" s="147"/>
+      <c r="AE13" s="147"/>
+      <c r="AF13" s="147"/>
+      <c r="AG13" s="147"/>
+      <c r="AH13" s="147"/>
+      <c r="AI13" s="147"/>
+      <c r="AJ13" s="147"/>
+      <c r="AK13" s="147"/>
+      <c r="AL13" s="147"/>
+      <c r="AM13" s="147"/>
+      <c r="AN13" s="147"/>
+      <c r="AO13" s="147"/>
+      <c r="AP13" s="147"/>
+      <c r="AQ13" s="147"/>
+      <c r="AR13" s="147"/>
+      <c r="AS13" s="143"/>
+      <c r="AT13" s="143"/>
+      <c r="AU13" s="143"/>
+      <c r="AV13" s="143"/>
+      <c r="AW13" s="143"/>
+      <c r="AX13" s="143"/>
+      <c r="AY13" s="143"/>
+      <c r="AZ13" s="143"/>
+      <c r="BA13" s="143"/>
+      <c r="BB13" s="143"/>
+      <c r="BC13" s="144"/>
     </row>
     <row r="14" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="115" t="s">
+      <c r="A14" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107" t="s">
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="107"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="107"/>
-      <c r="X14" s="107"/>
-      <c r="Y14" s="107"/>
-      <c r="Z14" s="107"/>
-      <c r="AA14" s="107"/>
-      <c r="AB14" s="133" t="s">
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="109"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="109"/>
+      <c r="T14" s="109"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="109"/>
+      <c r="W14" s="109"/>
+      <c r="X14" s="109"/>
+      <c r="Y14" s="109"/>
+      <c r="Z14" s="109"/>
+      <c r="AA14" s="109"/>
+      <c r="AB14" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="133"/>
-      <c r="AD14" s="133"/>
-      <c r="AE14" s="133"/>
-      <c r="AF14" s="133"/>
+      <c r="AC14" s="135"/>
+      <c r="AD14" s="135"/>
+      <c r="AE14" s="135"/>
+      <c r="AF14" s="135"/>
       <c r="AG14" s="65" t="s">
         <v>9</v>
       </c>
@@ -3817,16 +3834,16 @@
       <c r="AI14" s="65"/>
       <c r="AJ14" s="65"/>
       <c r="AK14" s="65"/>
-      <c r="AL14" s="133" t="s">
+      <c r="AL14" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="AM14" s="133"/>
-      <c r="AN14" s="133"/>
-      <c r="AO14" s="133"/>
-      <c r="AP14" s="133"/>
-      <c r="AQ14" s="133"/>
-      <c r="AR14" s="133"/>
-      <c r="AS14" s="133"/>
+      <c r="AM14" s="135"/>
+      <c r="AN14" s="135"/>
+      <c r="AO14" s="135"/>
+      <c r="AP14" s="135"/>
+      <c r="AQ14" s="135"/>
+      <c r="AR14" s="135"/>
+      <c r="AS14" s="135"/>
       <c r="AT14" s="65" t="s">
         <v>44</v>
       </c>
@@ -3841,76 +3858,76 @@
       <c r="BC14" s="66"/>
     </row>
     <row r="15" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="143"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="105"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="105"/>
-      <c r="R15" s="105"/>
-      <c r="S15" s="105"/>
-      <c r="T15" s="105"/>
-      <c r="U15" s="105"/>
-      <c r="V15" s="105"/>
-      <c r="W15" s="105"/>
-      <c r="X15" s="105"/>
-      <c r="Y15" s="105"/>
-      <c r="Z15" s="105"/>
-      <c r="AA15" s="105"/>
-      <c r="AB15" s="105"/>
-      <c r="AC15" s="105"/>
-      <c r="AD15" s="105"/>
-      <c r="AE15" s="105"/>
-      <c r="AF15" s="105"/>
-      <c r="AG15" s="105"/>
-      <c r="AH15" s="105"/>
-      <c r="AI15" s="105"/>
-      <c r="AJ15" s="105"/>
-      <c r="AK15" s="105"/>
-      <c r="AL15" s="105"/>
-      <c r="AM15" s="105"/>
-      <c r="AN15" s="105"/>
-      <c r="AO15" s="105"/>
-      <c r="AP15" s="105"/>
-      <c r="AQ15" s="105"/>
-      <c r="AR15" s="105"/>
-      <c r="AS15" s="105"/>
-      <c r="AT15" s="105"/>
-      <c r="AU15" s="105"/>
-      <c r="AV15" s="105"/>
-      <c r="AW15" s="105"/>
-      <c r="AX15" s="105"/>
-      <c r="AY15" s="105"/>
-      <c r="AZ15" s="105"/>
-      <c r="BA15" s="105"/>
-      <c r="BB15" s="105"/>
-      <c r="BC15" s="106"/>
+      <c r="A15" s="145"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="107"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="107"/>
+      <c r="W15" s="107"/>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="107"/>
+      <c r="AB15" s="107"/>
+      <c r="AC15" s="107"/>
+      <c r="AD15" s="107"/>
+      <c r="AE15" s="107"/>
+      <c r="AF15" s="107"/>
+      <c r="AG15" s="107"/>
+      <c r="AH15" s="107"/>
+      <c r="AI15" s="107"/>
+      <c r="AJ15" s="107"/>
+      <c r="AK15" s="107"/>
+      <c r="AL15" s="107"/>
+      <c r="AM15" s="107"/>
+      <c r="AN15" s="107"/>
+      <c r="AO15" s="107"/>
+      <c r="AP15" s="107"/>
+      <c r="AQ15" s="107"/>
+      <c r="AR15" s="107"/>
+      <c r="AS15" s="107"/>
+      <c r="AT15" s="107"/>
+      <c r="AU15" s="107"/>
+      <c r="AV15" s="107"/>
+      <c r="AW15" s="107"/>
+      <c r="AX15" s="107"/>
+      <c r="AY15" s="107"/>
+      <c r="AZ15" s="107"/>
+      <c r="BA15" s="107"/>
+      <c r="BB15" s="107"/>
+      <c r="BC15" s="108"/>
     </row>
     <row r="16" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
       <c r="L16" s="65" t="s">
         <v>46</v>
       </c>
@@ -3920,22 +3937,22 @@
       <c r="P16" s="65"/>
       <c r="Q16" s="65"/>
       <c r="R16" s="65"/>
-      <c r="S16" s="107" t="s">
+      <c r="S16" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="T16" s="107"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="107"/>
-      <c r="W16" s="107"/>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="107"/>
-      <c r="Z16" s="107"/>
-      <c r="AA16" s="107"/>
-      <c r="AB16" s="107"/>
-      <c r="AC16" s="107"/>
-      <c r="AD16" s="107"/>
-      <c r="AE16" s="107"/>
-      <c r="AF16" s="107"/>
+      <c r="T16" s="109"/>
+      <c r="U16" s="109"/>
+      <c r="V16" s="109"/>
+      <c r="W16" s="109"/>
+      <c r="X16" s="109"/>
+      <c r="Y16" s="109"/>
+      <c r="Z16" s="109"/>
+      <c r="AA16" s="109"/>
+      <c r="AB16" s="109"/>
+      <c r="AC16" s="109"/>
+      <c r="AD16" s="109"/>
+      <c r="AE16" s="109"/>
+      <c r="AF16" s="109"/>
       <c r="AG16" s="65" t="s">
         <v>10</v>
       </c>
@@ -3947,24 +3964,24 @@
         <v>11</v>
       </c>
       <c r="AM16" s="65"/>
-      <c r="AN16" s="122"/>
-      <c r="AO16" s="117" t="s">
+      <c r="AN16" s="124"/>
+      <c r="AO16" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="AP16" s="118"/>
-      <c r="AQ16" s="118"/>
-      <c r="AR16" s="118"/>
-      <c r="AS16" s="118"/>
-      <c r="AT16" s="118"/>
-      <c r="AU16" s="118"/>
-      <c r="AV16" s="118"/>
-      <c r="AW16" s="118"/>
-      <c r="AX16" s="118"/>
-      <c r="AY16" s="118"/>
-      <c r="AZ16" s="118"/>
-      <c r="BA16" s="118"/>
-      <c r="BB16" s="118"/>
-      <c r="BC16" s="119"/>
+      <c r="AP16" s="120"/>
+      <c r="AQ16" s="120"/>
+      <c r="AR16" s="120"/>
+      <c r="AS16" s="120"/>
+      <c r="AT16" s="120"/>
+      <c r="AU16" s="120"/>
+      <c r="AV16" s="120"/>
+      <c r="AW16" s="120"/>
+      <c r="AX16" s="120"/>
+      <c r="AY16" s="120"/>
+      <c r="AZ16" s="120"/>
+      <c r="BA16" s="120"/>
+      <c r="BB16" s="120"/>
+      <c r="BC16" s="121"/>
     </row>
     <row r="17" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="61"/>
@@ -3978,50 +3995,50 @@
       <c r="I17" s="62"/>
       <c r="J17" s="62"/>
       <c r="K17" s="62"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="116"/>
-      <c r="Q17" s="116"/>
-      <c r="R17" s="116"/>
-      <c r="S17" s="108"/>
-      <c r="T17" s="108"/>
-      <c r="U17" s="108"/>
-      <c r="V17" s="108"/>
-      <c r="W17" s="108"/>
-      <c r="X17" s="108"/>
-      <c r="Y17" s="108"/>
-      <c r="Z17" s="108"/>
-      <c r="AA17" s="108"/>
-      <c r="AB17" s="108"/>
-      <c r="AC17" s="108"/>
-      <c r="AD17" s="108"/>
-      <c r="AE17" s="108"/>
-      <c r="AF17" s="108"/>
-      <c r="AG17" s="131"/>
-      <c r="AH17" s="108"/>
-      <c r="AI17" s="108"/>
-      <c r="AJ17" s="108"/>
-      <c r="AK17" s="108"/>
-      <c r="AL17" s="131"/>
-      <c r="AM17" s="108"/>
-      <c r="AN17" s="132"/>
-      <c r="AO17" s="120"/>
-      <c r="AP17" s="116"/>
-      <c r="AQ17" s="116"/>
-      <c r="AR17" s="116"/>
-      <c r="AS17" s="116"/>
-      <c r="AT17" s="116"/>
-      <c r="AU17" s="116"/>
-      <c r="AV17" s="116"/>
-      <c r="AW17" s="116"/>
-      <c r="AX17" s="116"/>
-      <c r="AY17" s="116"/>
-      <c r="AZ17" s="116"/>
-      <c r="BA17" s="116"/>
-      <c r="BB17" s="116"/>
-      <c r="BC17" s="121"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="110"/>
+      <c r="U17" s="110"/>
+      <c r="V17" s="110"/>
+      <c r="W17" s="110"/>
+      <c r="X17" s="110"/>
+      <c r="Y17" s="110"/>
+      <c r="Z17" s="110"/>
+      <c r="AA17" s="110"/>
+      <c r="AB17" s="110"/>
+      <c r="AC17" s="110"/>
+      <c r="AD17" s="110"/>
+      <c r="AE17" s="110"/>
+      <c r="AF17" s="110"/>
+      <c r="AG17" s="133"/>
+      <c r="AH17" s="110"/>
+      <c r="AI17" s="110"/>
+      <c r="AJ17" s="110"/>
+      <c r="AK17" s="110"/>
+      <c r="AL17" s="133"/>
+      <c r="AM17" s="110"/>
+      <c r="AN17" s="134"/>
+      <c r="AO17" s="122"/>
+      <c r="AP17" s="118"/>
+      <c r="AQ17" s="118"/>
+      <c r="AR17" s="118"/>
+      <c r="AS17" s="118"/>
+      <c r="AT17" s="118"/>
+      <c r="AU17" s="118"/>
+      <c r="AV17" s="118"/>
+      <c r="AW17" s="118"/>
+      <c r="AX17" s="118"/>
+      <c r="AY17" s="118"/>
+      <c r="AZ17" s="118"/>
+      <c r="BA17" s="118"/>
+      <c r="BB17" s="118"/>
+      <c r="BC17" s="123"/>
     </row>
     <row r="18" spans="1:55" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
@@ -4037,19 +4054,19 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="220"/>
-      <c r="O18" s="220"/>
-      <c r="P18" s="220"/>
-      <c r="Q18" s="220"/>
-      <c r="R18" s="220"/>
-      <c r="S18" s="220"/>
-      <c r="T18" s="220"/>
-      <c r="U18" s="220"/>
-      <c r="V18" s="220"/>
-      <c r="W18" s="220"/>
-      <c r="X18" s="220"/>
-      <c r="Y18" s="220"/>
-      <c r="Z18" s="220"/>
+      <c r="N18" s="222"/>
+      <c r="O18" s="222"/>
+      <c r="P18" s="222"/>
+      <c r="Q18" s="222"/>
+      <c r="R18" s="222"/>
+      <c r="S18" s="222"/>
+      <c r="T18" s="222"/>
+      <c r="U18" s="222"/>
+      <c r="V18" s="222"/>
+      <c r="W18" s="222"/>
+      <c r="X18" s="222"/>
+      <c r="Y18" s="222"/>
+      <c r="Z18" s="222"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
@@ -4063,143 +4080,143 @@
       <c r="AK18" s="7"/>
     </row>
     <row r="19" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="221" t="s">
+      <c r="A19" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="222"/>
-      <c r="C19" s="222"/>
-      <c r="D19" s="222"/>
-      <c r="E19" s="222"/>
-      <c r="F19" s="222"/>
-      <c r="G19" s="222"/>
-      <c r="H19" s="222"/>
-      <c r="I19" s="222"/>
-      <c r="J19" s="222"/>
-      <c r="K19" s="222"/>
-      <c r="L19" s="222"/>
-      <c r="M19" s="222"/>
-      <c r="N19" s="222"/>
-      <c r="O19" s="222"/>
-      <c r="P19" s="222"/>
-      <c r="Q19" s="222"/>
-      <c r="R19" s="222"/>
-      <c r="S19" s="222"/>
-      <c r="T19" s="222"/>
-      <c r="U19" s="222"/>
-      <c r="V19" s="222"/>
-      <c r="W19" s="222"/>
-      <c r="X19" s="222"/>
-      <c r="Y19" s="222"/>
-      <c r="Z19" s="222"/>
-      <c r="AA19" s="222"/>
-      <c r="AB19" s="222"/>
-      <c r="AC19" s="222"/>
-      <c r="AD19" s="222"/>
-      <c r="AE19" s="222"/>
-      <c r="AF19" s="222"/>
-      <c r="AG19" s="222"/>
-      <c r="AH19" s="222"/>
-      <c r="AI19" s="222"/>
-      <c r="AJ19" s="222"/>
-      <c r="AK19" s="223"/>
-      <c r="AM19" s="125" t="s">
+      <c r="B19" s="224"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="224"/>
+      <c r="F19" s="224"/>
+      <c r="G19" s="224"/>
+      <c r="H19" s="224"/>
+      <c r="I19" s="224"/>
+      <c r="J19" s="224"/>
+      <c r="K19" s="224"/>
+      <c r="L19" s="224"/>
+      <c r="M19" s="224"/>
+      <c r="N19" s="224"/>
+      <c r="O19" s="224"/>
+      <c r="P19" s="224"/>
+      <c r="Q19" s="224"/>
+      <c r="R19" s="224"/>
+      <c r="S19" s="224"/>
+      <c r="T19" s="224"/>
+      <c r="U19" s="224"/>
+      <c r="V19" s="224"/>
+      <c r="W19" s="224"/>
+      <c r="X19" s="224"/>
+      <c r="Y19" s="224"/>
+      <c r="Z19" s="224"/>
+      <c r="AA19" s="224"/>
+      <c r="AB19" s="224"/>
+      <c r="AC19" s="224"/>
+      <c r="AD19" s="224"/>
+      <c r="AE19" s="224"/>
+      <c r="AF19" s="224"/>
+      <c r="AG19" s="224"/>
+      <c r="AH19" s="224"/>
+      <c r="AI19" s="224"/>
+      <c r="AJ19" s="224"/>
+      <c r="AK19" s="225"/>
+      <c r="AM19" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="AN19" s="126"/>
-      <c r="AO19" s="126"/>
-      <c r="AP19" s="126"/>
-      <c r="AQ19" s="126"/>
-      <c r="AR19" s="126"/>
-      <c r="AS19" s="126"/>
-      <c r="AT19" s="126"/>
-      <c r="AU19" s="126"/>
-      <c r="AV19" s="126"/>
-      <c r="AW19" s="126"/>
-      <c r="AX19" s="126"/>
-      <c r="AY19" s="126"/>
-      <c r="AZ19" s="126"/>
-      <c r="BA19" s="126"/>
-      <c r="BB19" s="126"/>
-      <c r="BC19" s="127"/>
+      <c r="AN19" s="128"/>
+      <c r="AO19" s="128"/>
+      <c r="AP19" s="128"/>
+      <c r="AQ19" s="128"/>
+      <c r="AR19" s="128"/>
+      <c r="AS19" s="128"/>
+      <c r="AT19" s="128"/>
+      <c r="AU19" s="128"/>
+      <c r="AV19" s="128"/>
+      <c r="AW19" s="128"/>
+      <c r="AX19" s="128"/>
+      <c r="AY19" s="128"/>
+      <c r="AZ19" s="128"/>
+      <c r="BA19" s="128"/>
+      <c r="BB19" s="128"/>
+      <c r="BC19" s="129"/>
     </row>
     <row r="20" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="229" t="s">
+      <c r="A20" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123" t="s">
+      <c r="B20" s="125"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="123"/>
-      <c r="T20" s="123"/>
-      <c r="U20" s="123"/>
-      <c r="V20" s="123"/>
-      <c r="W20" s="123" t="s">
+      <c r="O20" s="125"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="125"/>
+      <c r="S20" s="125"/>
+      <c r="T20" s="125"/>
+      <c r="U20" s="125"/>
+      <c r="V20" s="125"/>
+      <c r="W20" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="X20" s="123"/>
-      <c r="Y20" s="123"/>
-      <c r="Z20" s="123"/>
-      <c r="AA20" s="123"/>
-      <c r="AB20" s="123"/>
-      <c r="AC20" s="123" t="s">
+      <c r="X20" s="125"/>
+      <c r="Y20" s="125"/>
+      <c r="Z20" s="125"/>
+      <c r="AA20" s="125"/>
+      <c r="AB20" s="125"/>
+      <c r="AC20" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="AD20" s="123"/>
-      <c r="AE20" s="123"/>
-      <c r="AF20" s="123"/>
-      <c r="AG20" s="123"/>
-      <c r="AH20" s="123"/>
-      <c r="AI20" s="123"/>
-      <c r="AJ20" s="123"/>
-      <c r="AK20" s="134"/>
-      <c r="AM20" s="92"/>
-      <c r="AN20" s="93"/>
-      <c r="AO20" s="93"/>
-      <c r="AP20" s="93"/>
-      <c r="AQ20" s="93"/>
-      <c r="AR20" s="93"/>
-      <c r="AS20" s="93"/>
-      <c r="AT20" s="93"/>
-      <c r="AU20" s="93"/>
-      <c r="AV20" s="93"/>
-      <c r="AW20" s="93"/>
-      <c r="AX20" s="93"/>
-      <c r="AY20" s="93"/>
-      <c r="AZ20" s="93"/>
-      <c r="BA20" s="93"/>
-      <c r="BB20" s="93"/>
-      <c r="BC20" s="94"/>
+      <c r="AD20" s="125"/>
+      <c r="AE20" s="125"/>
+      <c r="AF20" s="125"/>
+      <c r="AG20" s="125"/>
+      <c r="AH20" s="125"/>
+      <c r="AI20" s="125"/>
+      <c r="AJ20" s="125"/>
+      <c r="AK20" s="136"/>
+      <c r="AM20" s="94"/>
+      <c r="AN20" s="95"/>
+      <c r="AO20" s="95"/>
+      <c r="AP20" s="95"/>
+      <c r="AQ20" s="95"/>
+      <c r="AR20" s="95"/>
+      <c r="AS20" s="95"/>
+      <c r="AT20" s="95"/>
+      <c r="AU20" s="95"/>
+      <c r="AV20" s="95"/>
+      <c r="AW20" s="95"/>
+      <c r="AX20" s="95"/>
+      <c r="AY20" s="95"/>
+      <c r="AZ20" s="95"/>
+      <c r="BA20" s="95"/>
+      <c r="BB20" s="95"/>
+      <c r="BC20" s="96"/>
     </row>
     <row r="21" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="230"/>
-      <c r="B21" s="231"/>
-      <c r="C21" s="231"/>
-      <c r="D21" s="231"/>
-      <c r="E21" s="231"/>
-      <c r="F21" s="231"/>
-      <c r="G21" s="231"/>
-      <c r="H21" s="231"/>
-      <c r="I21" s="231"/>
-      <c r="J21" s="231"/>
-      <c r="K21" s="231"/>
-      <c r="L21" s="231"/>
-      <c r="M21" s="231"/>
+      <c r="A21" s="232"/>
+      <c r="B21" s="233"/>
+      <c r="C21" s="233"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="233"/>
+      <c r="F21" s="233"/>
+      <c r="G21" s="233"/>
+      <c r="H21" s="233"/>
+      <c r="I21" s="233"/>
+      <c r="J21" s="233"/>
+      <c r="K21" s="233"/>
+      <c r="L21" s="233"/>
+      <c r="M21" s="233"/>
       <c r="N21" s="73"/>
       <c r="O21" s="73"/>
       <c r="P21" s="73"/>
@@ -4224,38 +4241,38 @@
       <c r="AI21" s="73"/>
       <c r="AJ21" s="73"/>
       <c r="AK21" s="74"/>
-      <c r="AM21" s="95"/>
-      <c r="AN21" s="96"/>
-      <c r="AO21" s="96"/>
-      <c r="AP21" s="96"/>
-      <c r="AQ21" s="96"/>
-      <c r="AR21" s="96"/>
-      <c r="AS21" s="96"/>
-      <c r="AT21" s="96"/>
-      <c r="AU21" s="96"/>
-      <c r="AV21" s="96"/>
-      <c r="AW21" s="96"/>
-      <c r="AX21" s="96"/>
-      <c r="AY21" s="96"/>
-      <c r="AZ21" s="96"/>
-      <c r="BA21" s="96"/>
-      <c r="BB21" s="96"/>
-      <c r="BC21" s="97"/>
+      <c r="AM21" s="97"/>
+      <c r="AN21" s="98"/>
+      <c r="AO21" s="98"/>
+      <c r="AP21" s="98"/>
+      <c r="AQ21" s="98"/>
+      <c r="AR21" s="98"/>
+      <c r="AS21" s="98"/>
+      <c r="AT21" s="98"/>
+      <c r="AU21" s="98"/>
+      <c r="AV21" s="98"/>
+      <c r="AW21" s="98"/>
+      <c r="AX21" s="98"/>
+      <c r="AY21" s="98"/>
+      <c r="AZ21" s="98"/>
+      <c r="BA21" s="98"/>
+      <c r="BB21" s="98"/>
+      <c r="BC21" s="99"/>
     </row>
     <row r="22" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="230"/>
-      <c r="B22" s="231"/>
-      <c r="C22" s="231"/>
-      <c r="D22" s="231"/>
-      <c r="E22" s="231"/>
-      <c r="F22" s="231"/>
-      <c r="G22" s="231"/>
-      <c r="H22" s="231"/>
-      <c r="I22" s="231"/>
-      <c r="J22" s="231"/>
-      <c r="K22" s="231"/>
-      <c r="L22" s="231"/>
-      <c r="M22" s="231"/>
+      <c r="A22" s="232"/>
+      <c r="B22" s="233"/>
+      <c r="C22" s="233"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="233"/>
+      <c r="F22" s="233"/>
+      <c r="G22" s="233"/>
+      <c r="H22" s="233"/>
+      <c r="I22" s="233"/>
+      <c r="J22" s="233"/>
+      <c r="K22" s="233"/>
+      <c r="L22" s="233"/>
+      <c r="M22" s="233"/>
       <c r="N22" s="73"/>
       <c r="O22" s="73"/>
       <c r="P22" s="73"/>
@@ -4282,19 +4299,19 @@
       <c r="AK22" s="74"/>
     </row>
     <row r="23" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="230"/>
-      <c r="B23" s="231"/>
-      <c r="C23" s="231"/>
-      <c r="D23" s="231"/>
-      <c r="E23" s="231"/>
-      <c r="F23" s="231"/>
-      <c r="G23" s="231"/>
-      <c r="H23" s="231"/>
-      <c r="I23" s="231"/>
-      <c r="J23" s="231"/>
-      <c r="K23" s="231"/>
-      <c r="L23" s="231"/>
-      <c r="M23" s="231"/>
+      <c r="A23" s="232"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
+      <c r="D23" s="233"/>
+      <c r="E23" s="233"/>
+      <c r="F23" s="233"/>
+      <c r="G23" s="233"/>
+      <c r="H23" s="233"/>
+      <c r="I23" s="233"/>
+      <c r="J23" s="233"/>
+      <c r="K23" s="233"/>
+      <c r="L23" s="233"/>
+      <c r="M23" s="233"/>
       <c r="N23" s="73"/>
       <c r="O23" s="73"/>
       <c r="P23" s="73"/>
@@ -4320,40 +4337,40 @@
       <c r="AJ23" s="73"/>
       <c r="AK23" s="74"/>
       <c r="AL23" s="6"/>
-      <c r="AM23" s="128" t="s">
+      <c r="AM23" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="AN23" s="129"/>
-      <c r="AO23" s="129"/>
-      <c r="AP23" s="129"/>
-      <c r="AQ23" s="129"/>
-      <c r="AR23" s="129"/>
-      <c r="AS23" s="129"/>
-      <c r="AT23" s="129"/>
-      <c r="AU23" s="129"/>
-      <c r="AV23" s="129"/>
-      <c r="AW23" s="129"/>
-      <c r="AX23" s="129"/>
-      <c r="AY23" s="129"/>
-      <c r="AZ23" s="129"/>
-      <c r="BA23" s="129"/>
-      <c r="BB23" s="129"/>
-      <c r="BC23" s="130"/>
+      <c r="AN23" s="131"/>
+      <c r="AO23" s="131"/>
+      <c r="AP23" s="131"/>
+      <c r="AQ23" s="131"/>
+      <c r="AR23" s="131"/>
+      <c r="AS23" s="131"/>
+      <c r="AT23" s="131"/>
+      <c r="AU23" s="131"/>
+      <c r="AV23" s="131"/>
+      <c r="AW23" s="131"/>
+      <c r="AX23" s="131"/>
+      <c r="AY23" s="131"/>
+      <c r="AZ23" s="131"/>
+      <c r="BA23" s="131"/>
+      <c r="BB23" s="131"/>
+      <c r="BC23" s="132"/>
     </row>
     <row r="24" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="230"/>
-      <c r="B24" s="231"/>
-      <c r="C24" s="231"/>
-      <c r="D24" s="231"/>
-      <c r="E24" s="231"/>
-      <c r="F24" s="231"/>
-      <c r="G24" s="231"/>
-      <c r="H24" s="231"/>
-      <c r="I24" s="231"/>
-      <c r="J24" s="231"/>
-      <c r="K24" s="231"/>
-      <c r="L24" s="231"/>
-      <c r="M24" s="231"/>
+      <c r="A24" s="232"/>
+      <c r="B24" s="233"/>
+      <c r="C24" s="233"/>
+      <c r="D24" s="233"/>
+      <c r="E24" s="233"/>
+      <c r="F24" s="233"/>
+      <c r="G24" s="233"/>
+      <c r="H24" s="233"/>
+      <c r="I24" s="233"/>
+      <c r="J24" s="233"/>
+      <c r="K24" s="233"/>
+      <c r="L24" s="233"/>
+      <c r="M24" s="233"/>
       <c r="N24" s="73"/>
       <c r="O24" s="73"/>
       <c r="P24" s="73"/>
@@ -4379,44 +4396,44 @@
       <c r="AJ24" s="73"/>
       <c r="AK24" s="74"/>
       <c r="AL24" s="70"/>
-      <c r="AM24" s="109" t="s">
+      <c r="AM24" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="AN24" s="110"/>
-      <c r="AO24" s="110"/>
-      <c r="AP24" s="110"/>
-      <c r="AQ24" s="110"/>
-      <c r="AR24" s="111" t="s">
+      <c r="AN24" s="112"/>
+      <c r="AO24" s="112"/>
+      <c r="AP24" s="112"/>
+      <c r="AQ24" s="112"/>
+      <c r="AR24" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="AS24" s="111"/>
-      <c r="AT24" s="111"/>
-      <c r="AU24" s="111"/>
-      <c r="AV24" s="111"/>
-      <c r="AW24" s="111"/>
-      <c r="AX24" s="111"/>
-      <c r="AY24" s="98" t="s">
+      <c r="AS24" s="113"/>
+      <c r="AT24" s="113"/>
+      <c r="AU24" s="113"/>
+      <c r="AV24" s="113"/>
+      <c r="AW24" s="113"/>
+      <c r="AX24" s="113"/>
+      <c r="AY24" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="AZ24" s="98"/>
-      <c r="BA24" s="98"/>
-      <c r="BB24" s="98"/>
-      <c r="BC24" s="99"/>
+      <c r="AZ24" s="100"/>
+      <c r="BA24" s="100"/>
+      <c r="BB24" s="100"/>
+      <c r="BC24" s="101"/>
     </row>
     <row r="25" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="230"/>
-      <c r="B25" s="231"/>
-      <c r="C25" s="231"/>
-      <c r="D25" s="231"/>
-      <c r="E25" s="231"/>
-      <c r="F25" s="231"/>
-      <c r="G25" s="231"/>
-      <c r="H25" s="231"/>
-      <c r="I25" s="231"/>
-      <c r="J25" s="231"/>
-      <c r="K25" s="231"/>
-      <c r="L25" s="231"/>
-      <c r="M25" s="231"/>
+      <c r="A25" s="232"/>
+      <c r="B25" s="233"/>
+      <c r="C25" s="233"/>
+      <c r="D25" s="233"/>
+      <c r="E25" s="233"/>
+      <c r="F25" s="233"/>
+      <c r="G25" s="233"/>
+      <c r="H25" s="233"/>
+      <c r="I25" s="233"/>
+      <c r="J25" s="233"/>
+      <c r="K25" s="233"/>
+      <c r="L25" s="233"/>
+      <c r="M25" s="233"/>
       <c r="N25" s="73"/>
       <c r="O25" s="73"/>
       <c r="P25" s="73"/>
@@ -4461,28 +4478,28 @@
       <c r="BC25" s="53"/>
     </row>
     <row r="26" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="232"/>
-      <c r="B26" s="233"/>
-      <c r="C26" s="233"/>
-      <c r="D26" s="233"/>
-      <c r="E26" s="233"/>
-      <c r="F26" s="233"/>
-      <c r="G26" s="233"/>
-      <c r="H26" s="233"/>
-      <c r="I26" s="233"/>
-      <c r="J26" s="233"/>
-      <c r="K26" s="233"/>
-      <c r="L26" s="233"/>
-      <c r="M26" s="233"/>
-      <c r="N26" s="228"/>
-      <c r="O26" s="228"/>
-      <c r="P26" s="228"/>
-      <c r="Q26" s="228"/>
-      <c r="R26" s="228"/>
-      <c r="S26" s="228"/>
-      <c r="T26" s="228"/>
-      <c r="U26" s="228"/>
-      <c r="V26" s="228"/>
+      <c r="A26" s="234"/>
+      <c r="B26" s="235"/>
+      <c r="C26" s="235"/>
+      <c r="D26" s="235"/>
+      <c r="E26" s="235"/>
+      <c r="F26" s="235"/>
+      <c r="G26" s="235"/>
+      <c r="H26" s="235"/>
+      <c r="I26" s="235"/>
+      <c r="J26" s="235"/>
+      <c r="K26" s="235"/>
+      <c r="L26" s="235"/>
+      <c r="M26" s="235"/>
+      <c r="N26" s="230"/>
+      <c r="O26" s="230"/>
+      <c r="P26" s="230"/>
+      <c r="Q26" s="230"/>
+      <c r="R26" s="230"/>
+      <c r="S26" s="230"/>
+      <c r="T26" s="230"/>
+      <c r="U26" s="230"/>
+      <c r="V26" s="230"/>
       <c r="W26" s="77"/>
       <c r="X26" s="77"/>
       <c r="Y26" s="77"/>
@@ -4518,38 +4535,38 @@
       <c r="BC26" s="55"/>
     </row>
     <row r="27" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="225" t="s">
+      <c r="A27" s="227" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="225"/>
-      <c r="C27" s="225"/>
-      <c r="D27" s="225"/>
-      <c r="E27" s="225"/>
-      <c r="F27" s="225"/>
-      <c r="G27" s="225"/>
-      <c r="H27" s="225"/>
-      <c r="I27" s="225"/>
-      <c r="J27" s="225"/>
-      <c r="K27" s="225"/>
-      <c r="L27" s="225"/>
-      <c r="M27" s="225"/>
-      <c r="N27" s="226"/>
-      <c r="O27" s="226"/>
-      <c r="P27" s="226"/>
-      <c r="Q27" s="226"/>
-      <c r="R27" s="226"/>
-      <c r="S27" s="113" t="s">
+      <c r="B27" s="227"/>
+      <c r="C27" s="227"/>
+      <c r="D27" s="227"/>
+      <c r="E27" s="227"/>
+      <c r="F27" s="227"/>
+      <c r="G27" s="227"/>
+      <c r="H27" s="227"/>
+      <c r="I27" s="227"/>
+      <c r="J27" s="227"/>
+      <c r="K27" s="227"/>
+      <c r="L27" s="227"/>
+      <c r="M27" s="227"/>
+      <c r="N27" s="228"/>
+      <c r="O27" s="228"/>
+      <c r="P27" s="228"/>
+      <c r="Q27" s="228"/>
+      <c r="R27" s="228"/>
+      <c r="S27" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="T27" s="114"/>
-      <c r="U27" s="114"/>
-      <c r="V27" s="114"/>
-      <c r="W27" s="114"/>
-      <c r="X27" s="114"/>
-      <c r="Y27" s="114"/>
-      <c r="Z27" s="114"/>
-      <c r="AA27" s="114"/>
-      <c r="AB27" s="114"/>
+      <c r="T27" s="116"/>
+      <c r="U27" s="116"/>
+      <c r="V27" s="116"/>
+      <c r="W27" s="116"/>
+      <c r="X27" s="116"/>
+      <c r="Y27" s="116"/>
+      <c r="Z27" s="116"/>
+      <c r="AA27" s="116"/>
+      <c r="AB27" s="116"/>
       <c r="AC27" s="71">
         <v>0</v>
       </c>
@@ -4583,24 +4600,24 @@
       <c r="BC27" s="67"/>
     </row>
     <row r="28" spans="1:55" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="227"/>
-      <c r="B28" s="227"/>
-      <c r="C28" s="227"/>
-      <c r="D28" s="227"/>
-      <c r="E28" s="227"/>
-      <c r="F28" s="227"/>
-      <c r="G28" s="227"/>
-      <c r="H28" s="227"/>
-      <c r="I28" s="227"/>
-      <c r="J28" s="227"/>
-      <c r="K28" s="227"/>
-      <c r="L28" s="227"/>
-      <c r="M28" s="227"/>
-      <c r="N28" s="227"/>
-      <c r="O28" s="227"/>
-      <c r="P28" s="227"/>
-      <c r="Q28" s="227"/>
-      <c r="R28" s="227"/>
+      <c r="A28" s="229"/>
+      <c r="B28" s="229"/>
+      <c r="C28" s="229"/>
+      <c r="D28" s="229"/>
+      <c r="E28" s="229"/>
+      <c r="F28" s="229"/>
+      <c r="G28" s="229"/>
+      <c r="H28" s="229"/>
+      <c r="I28" s="229"/>
+      <c r="J28" s="229"/>
+      <c r="K28" s="229"/>
+      <c r="L28" s="229"/>
+      <c r="M28" s="229"/>
+      <c r="N28" s="229"/>
+      <c r="O28" s="229"/>
+      <c r="P28" s="229"/>
+      <c r="Q28" s="229"/>
+      <c r="R28" s="229"/>
       <c r="AL28" s="70"/>
       <c r="AM28" s="68"/>
       <c r="AN28" s="68"/>
@@ -4621,45 +4638,45 @@
       <c r="BC28" s="68"/>
     </row>
     <row r="29" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="100" t="s">
+      <c r="A29" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="101"/>
-      <c r="S29" s="101"/>
-      <c r="T29" s="101"/>
-      <c r="U29" s="101"/>
-      <c r="V29" s="101"/>
-      <c r="W29" s="101"/>
-      <c r="X29" s="101"/>
-      <c r="Y29" s="101"/>
-      <c r="Z29" s="101"/>
-      <c r="AA29" s="101"/>
-      <c r="AB29" s="101"/>
-      <c r="AC29" s="101"/>
-      <c r="AD29" s="101"/>
-      <c r="AE29" s="101"/>
-      <c r="AF29" s="101"/>
-      <c r="AG29" s="101"/>
-      <c r="AH29" s="101"/>
-      <c r="AI29" s="101"/>
-      <c r="AJ29" s="101"/>
-      <c r="AK29" s="102"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="103"/>
+      <c r="T29" s="103"/>
+      <c r="U29" s="103"/>
+      <c r="V29" s="103"/>
+      <c r="W29" s="103"/>
+      <c r="X29" s="103"/>
+      <c r="Y29" s="103"/>
+      <c r="Z29" s="103"/>
+      <c r="AA29" s="103"/>
+      <c r="AB29" s="103"/>
+      <c r="AC29" s="103"/>
+      <c r="AD29" s="103"/>
+      <c r="AE29" s="103"/>
+      <c r="AF29" s="103"/>
+      <c r="AG29" s="103"/>
+      <c r="AH29" s="103"/>
+      <c r="AI29" s="103"/>
+      <c r="AJ29" s="103"/>
+      <c r="AK29" s="104"/>
       <c r="AL29" s="70"/>
       <c r="AM29" s="68"/>
       <c r="AN29" s="68"/>
@@ -4680,51 +4697,51 @@
       <c r="BC29" s="68"/>
     </row>
     <row r="30" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="112" t="s">
+      <c r="A30" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="103"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="103" t="s">
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="N30" s="103"/>
-      <c r="O30" s="103"/>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="103"/>
-      <c r="S30" s="103"/>
-      <c r="T30" s="103" t="s">
+      <c r="N30" s="105"/>
+      <c r="O30" s="105"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="105"/>
+      <c r="R30" s="105"/>
+      <c r="S30" s="105"/>
+      <c r="T30" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="U30" s="103"/>
-      <c r="V30" s="103"/>
-      <c r="W30" s="103"/>
-      <c r="X30" s="103"/>
-      <c r="Y30" s="103"/>
+      <c r="U30" s="105"/>
+      <c r="V30" s="105"/>
+      <c r="W30" s="105"/>
+      <c r="X30" s="105"/>
+      <c r="Y30" s="105"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
-      <c r="AC30" s="103" t="s">
+      <c r="AC30" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="AD30" s="103"/>
-      <c r="AE30" s="103"/>
-      <c r="AF30" s="103"/>
-      <c r="AG30" s="103"/>
-      <c r="AH30" s="103"/>
-      <c r="AI30" s="103"/>
-      <c r="AJ30" s="103"/>
-      <c r="AK30" s="104"/>
+      <c r="AD30" s="105"/>
+      <c r="AE30" s="105"/>
+      <c r="AF30" s="105"/>
+      <c r="AG30" s="105"/>
+      <c r="AH30" s="105"/>
+      <c r="AI30" s="105"/>
+      <c r="AJ30" s="105"/>
+      <c r="AK30" s="106"/>
       <c r="AL30" s="70"/>
       <c r="AM30" s="68"/>
       <c r="AN30" s="68"/>
@@ -4820,18 +4837,18 @@
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
-      <c r="S32" s="224" t="s">
+      <c r="S32" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="T32" s="224"/>
-      <c r="U32" s="224"/>
-      <c r="V32" s="224"/>
-      <c r="W32" s="224"/>
-      <c r="X32" s="224"/>
-      <c r="Y32" s="224"/>
-      <c r="Z32" s="224"/>
-      <c r="AA32" s="224"/>
-      <c r="AB32" s="224"/>
+      <c r="T32" s="226"/>
+      <c r="U32" s="226"/>
+      <c r="V32" s="226"/>
+      <c r="W32" s="226"/>
+      <c r="X32" s="226"/>
+      <c r="Y32" s="226"/>
+      <c r="Z32" s="226"/>
+      <c r="AA32" s="226"/>
+      <c r="AB32" s="226"/>
       <c r="AC32" s="71"/>
       <c r="AD32" s="71"/>
       <c r="AE32" s="71"/>
@@ -4861,45 +4878,45 @@
       <c r="BC32" s="68"/>
     </row>
     <row r="33" spans="1:55" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="91" t="s">
+      <c r="A33" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="91"/>
-      <c r="S33" s="91"/>
-      <c r="T33" s="91"/>
-      <c r="U33" s="91"/>
-      <c r="V33" s="91"/>
-      <c r="W33" s="91"/>
-      <c r="X33" s="91"/>
-      <c r="Y33" s="91"/>
-      <c r="Z33" s="91"/>
-      <c r="AA33" s="91"/>
-      <c r="AB33" s="91"/>
-      <c r="AC33" s="91"/>
-      <c r="AD33" s="91"/>
-      <c r="AE33" s="91"/>
-      <c r="AF33" s="91"/>
-      <c r="AG33" s="91"/>
-      <c r="AH33" s="91"/>
-      <c r="AI33" s="91"/>
-      <c r="AJ33" s="91"/>
-      <c r="AK33" s="91"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="93"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="93"/>
+      <c r="T33" s="93"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="93"/>
+      <c r="W33" s="93"/>
+      <c r="X33" s="93"/>
+      <c r="Y33" s="93"/>
+      <c r="Z33" s="93"/>
+      <c r="AA33" s="93"/>
+      <c r="AB33" s="93"/>
+      <c r="AC33" s="93"/>
+      <c r="AD33" s="93"/>
+      <c r="AE33" s="93"/>
+      <c r="AF33" s="93"/>
+      <c r="AG33" s="93"/>
+      <c r="AH33" s="93"/>
+      <c r="AI33" s="93"/>
+      <c r="AJ33" s="93"/>
+      <c r="AK33" s="93"/>
       <c r="AL33" s="8"/>
       <c r="AM33" s="69"/>
       <c r="AN33" s="69"/>
@@ -5020,28 +5037,28 @@
       <c r="AH35" s="82"/>
       <c r="AI35" s="82"/>
       <c r="AJ35" s="82"/>
-      <c r="AK35" s="88"/>
-      <c r="AM35" s="189"/>
-      <c r="AN35" s="190"/>
-      <c r="AO35" s="190"/>
-      <c r="AP35" s="190"/>
-      <c r="AQ35" s="190"/>
-      <c r="AR35" s="190"/>
-      <c r="AS35" s="190"/>
-      <c r="AT35" s="190"/>
-      <c r="AU35" s="190"/>
-      <c r="AV35" s="190"/>
-      <c r="AW35" s="190"/>
-      <c r="AX35" s="190"/>
-      <c r="AY35" s="190"/>
-      <c r="AZ35" s="190"/>
-      <c r="BA35" s="190"/>
-      <c r="BB35" s="190"/>
-      <c r="BC35" s="191"/>
+      <c r="AK35" s="90"/>
+      <c r="AM35" s="191"/>
+      <c r="AN35" s="192"/>
+      <c r="AO35" s="192"/>
+      <c r="AP35" s="192"/>
+      <c r="AQ35" s="192"/>
+      <c r="AR35" s="192"/>
+      <c r="AS35" s="192"/>
+      <c r="AT35" s="192"/>
+      <c r="AU35" s="192"/>
+      <c r="AV35" s="192"/>
+      <c r="AW35" s="192"/>
+      <c r="AX35" s="192"/>
+      <c r="AY35" s="192"/>
+      <c r="AZ35" s="192"/>
+      <c r="BA35" s="192"/>
+      <c r="BB35" s="192"/>
+      <c r="BC35" s="193"/>
     </row>
     <row r="36" spans="1:55" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="85">
-        <v>287.89999999999998</v>
+        <v>346.4</v>
       </c>
       <c r="B36" s="86"/>
       <c r="C36" s="86"/>
@@ -5053,12 +5070,12 @@
       <c r="I36" s="86"/>
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="89"/>
-      <c r="O36" s="89"/>
-      <c r="P36" s="87"/>
-      <c r="Q36" s="87"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="91"/>
+      <c r="N36" s="91"/>
+      <c r="O36" s="91"/>
+      <c r="P36" s="89"/>
+      <c r="Q36" s="89"/>
       <c r="R36" s="23"/>
       <c r="S36" s="23"/>
       <c r="T36" s="23"/>
@@ -5079,23 +5096,23 @@
       <c r="AI36" s="23"/>
       <c r="AJ36" s="23"/>
       <c r="AK36" s="24"/>
-      <c r="AM36" s="192"/>
-      <c r="AN36" s="193"/>
-      <c r="AO36" s="193"/>
-      <c r="AP36" s="193"/>
-      <c r="AQ36" s="193"/>
-      <c r="AR36" s="193"/>
-      <c r="AS36" s="193"/>
-      <c r="AT36" s="193"/>
-      <c r="AU36" s="193"/>
-      <c r="AV36" s="193"/>
-      <c r="AW36" s="193"/>
-      <c r="AX36" s="193"/>
-      <c r="AY36" s="193"/>
-      <c r="AZ36" s="193"/>
-      <c r="BA36" s="193"/>
-      <c r="BB36" s="193"/>
-      <c r="BC36" s="194"/>
+      <c r="AM36" s="194"/>
+      <c r="AN36" s="195"/>
+      <c r="AO36" s="195"/>
+      <c r="AP36" s="195"/>
+      <c r="AQ36" s="195"/>
+      <c r="AR36" s="195"/>
+      <c r="AS36" s="195"/>
+      <c r="AT36" s="195"/>
+      <c r="AU36" s="195"/>
+      <c r="AV36" s="195"/>
+      <c r="AW36" s="195"/>
+      <c r="AX36" s="195"/>
+      <c r="AY36" s="195"/>
+      <c r="AZ36" s="195"/>
+      <c r="BA36" s="195"/>
+      <c r="BB36" s="195"/>
+      <c r="BC36" s="196"/>
     </row>
     <row r="37" spans="1:55" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="83" t="s">
@@ -5111,12 +5128,12 @@
       <c r="I37" s="84"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="89"/>
-      <c r="O37" s="89"/>
-      <c r="P37" s="87"/>
-      <c r="Q37" s="87"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="91"/>
+      <c r="N37" s="91"/>
+      <c r="O37" s="91"/>
+      <c r="P37" s="89"/>
+      <c r="Q37" s="89"/>
       <c r="R37" s="23"/>
       <c r="S37" s="23"/>
       <c r="T37" s="23"/>
@@ -5138,44 +5155,44 @@
       <c r="AJ37" s="23"/>
       <c r="AK37" s="24"/>
       <c r="AL37" s="21"/>
-      <c r="AM37" s="192"/>
-      <c r="AN37" s="193"/>
-      <c r="AO37" s="193"/>
-      <c r="AP37" s="193"/>
-      <c r="AQ37" s="193"/>
-      <c r="AR37" s="193"/>
-      <c r="AS37" s="193"/>
-      <c r="AT37" s="193"/>
-      <c r="AU37" s="193"/>
-      <c r="AV37" s="193"/>
-      <c r="AW37" s="193"/>
-      <c r="AX37" s="193"/>
-      <c r="AY37" s="193"/>
-      <c r="AZ37" s="193"/>
-      <c r="BA37" s="193"/>
-      <c r="BB37" s="193"/>
-      <c r="BC37" s="194"/>
+      <c r="AM37" s="194"/>
+      <c r="AN37" s="195"/>
+      <c r="AO37" s="195"/>
+      <c r="AP37" s="195"/>
+      <c r="AQ37" s="195"/>
+      <c r="AR37" s="195"/>
+      <c r="AS37" s="195"/>
+      <c r="AT37" s="195"/>
+      <c r="AU37" s="195"/>
+      <c r="AV37" s="195"/>
+      <c r="AW37" s="195"/>
+      <c r="AX37" s="195"/>
+      <c r="AY37" s="195"/>
+      <c r="AZ37" s="195"/>
+      <c r="BA37" s="195"/>
+      <c r="BB37" s="195"/>
+      <c r="BC37" s="196"/>
     </row>
     <row r="38" spans="1:55" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="40">
-        <v>258.2</v>
-      </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
+      <c r="A38" s="87">
+        <v>316.39999999999998</v>
+      </c>
+      <c r="B38" s="88"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="89"/>
-      <c r="O38" s="89"/>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="87"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="91"/>
+      <c r="N38" s="91"/>
+      <c r="O38" s="91"/>
+      <c r="P38" s="89"/>
+      <c r="Q38" s="89"/>
       <c r="R38" s="23"/>
       <c r="S38" s="23"/>
       <c r="T38" s="23"/>
@@ -5197,23 +5214,23 @@
       <c r="AJ38" s="23"/>
       <c r="AK38" s="24"/>
       <c r="AL38" s="22"/>
-      <c r="AM38" s="192"/>
-      <c r="AN38" s="193"/>
-      <c r="AO38" s="193"/>
-      <c r="AP38" s="193"/>
-      <c r="AQ38" s="193"/>
-      <c r="AR38" s="193"/>
-      <c r="AS38" s="193"/>
-      <c r="AT38" s="193"/>
-      <c r="AU38" s="193"/>
-      <c r="AV38" s="193"/>
-      <c r="AW38" s="193"/>
-      <c r="AX38" s="193"/>
-      <c r="AY38" s="193"/>
-      <c r="AZ38" s="193"/>
-      <c r="BA38" s="193"/>
-      <c r="BB38" s="193"/>
-      <c r="BC38" s="194"/>
+      <c r="AM38" s="194"/>
+      <c r="AN38" s="195"/>
+      <c r="AO38" s="195"/>
+      <c r="AP38" s="195"/>
+      <c r="AQ38" s="195"/>
+      <c r="AR38" s="195"/>
+      <c r="AS38" s="195"/>
+      <c r="AT38" s="195"/>
+      <c r="AU38" s="195"/>
+      <c r="AV38" s="195"/>
+      <c r="AW38" s="195"/>
+      <c r="AX38" s="195"/>
+      <c r="AY38" s="195"/>
+      <c r="AZ38" s="195"/>
+      <c r="BA38" s="195"/>
+      <c r="BB38" s="195"/>
+      <c r="BC38" s="196"/>
     </row>
     <row r="39" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="83" t="s">
@@ -5229,12 +5246,12 @@
       <c r="I39" s="84"/>
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="89"/>
-      <c r="O39" s="89"/>
-      <c r="P39" s="90"/>
-      <c r="Q39" s="90"/>
+      <c r="L39" s="91"/>
+      <c r="M39" s="91"/>
+      <c r="N39" s="91"/>
+      <c r="O39" s="91"/>
+      <c r="P39" s="92"/>
+      <c r="Q39" s="92"/>
       <c r="R39" s="23"/>
       <c r="S39" s="23"/>
       <c r="T39" s="23"/>
@@ -5255,44 +5272,44 @@
       <c r="AI39" s="23"/>
       <c r="AJ39" s="23"/>
       <c r="AK39" s="24"/>
-      <c r="AM39" s="192"/>
-      <c r="AN39" s="193"/>
-      <c r="AO39" s="193"/>
-      <c r="AP39" s="193"/>
-      <c r="AQ39" s="193"/>
-      <c r="AR39" s="193"/>
-      <c r="AS39" s="193"/>
-      <c r="AT39" s="193"/>
-      <c r="AU39" s="193"/>
-      <c r="AV39" s="193"/>
-      <c r="AW39" s="193"/>
-      <c r="AX39" s="193"/>
-      <c r="AY39" s="193"/>
-      <c r="AZ39" s="193"/>
-      <c r="BA39" s="193"/>
-      <c r="BB39" s="193"/>
-      <c r="BC39" s="194"/>
+      <c r="AM39" s="194"/>
+      <c r="AN39" s="195"/>
+      <c r="AO39" s="195"/>
+      <c r="AP39" s="195"/>
+      <c r="AQ39" s="195"/>
+      <c r="AR39" s="195"/>
+      <c r="AS39" s="195"/>
+      <c r="AT39" s="195"/>
+      <c r="AU39" s="195"/>
+      <c r="AV39" s="195"/>
+      <c r="AW39" s="195"/>
+      <c r="AX39" s="195"/>
+      <c r="AY39" s="195"/>
+      <c r="AZ39" s="195"/>
+      <c r="BA39" s="195"/>
+      <c r="BB39" s="195"/>
+      <c r="BC39" s="196"/>
     </row>
     <row r="40" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="40">
-        <v>29.7</v>
-      </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
+      <c r="A40" s="87">
+        <v>30</v>
+      </c>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="89"/>
-      <c r="O40" s="89"/>
-      <c r="P40" s="90"/>
-      <c r="Q40" s="90"/>
+      <c r="L40" s="91"/>
+      <c r="M40" s="91"/>
+      <c r="N40" s="91"/>
+      <c r="O40" s="91"/>
+      <c r="P40" s="92"/>
+      <c r="Q40" s="92"/>
       <c r="R40" s="23"/>
       <c r="S40" s="23"/>
       <c r="T40" s="23"/>
@@ -5313,23 +5330,23 @@
       <c r="AI40" s="23"/>
       <c r="AJ40" s="23"/>
       <c r="AK40" s="24"/>
-      <c r="AM40" s="192"/>
-      <c r="AN40" s="193"/>
-      <c r="AO40" s="193"/>
-      <c r="AP40" s="193"/>
-      <c r="AQ40" s="193"/>
-      <c r="AR40" s="193"/>
-      <c r="AS40" s="193"/>
-      <c r="AT40" s="193"/>
-      <c r="AU40" s="193"/>
-      <c r="AV40" s="193"/>
-      <c r="AW40" s="193"/>
-      <c r="AX40" s="193"/>
-      <c r="AY40" s="193"/>
-      <c r="AZ40" s="193"/>
-      <c r="BA40" s="193"/>
-      <c r="BB40" s="193"/>
-      <c r="BC40" s="194"/>
+      <c r="AM40" s="194"/>
+      <c r="AN40" s="195"/>
+      <c r="AO40" s="195"/>
+      <c r="AP40" s="195"/>
+      <c r="AQ40" s="195"/>
+      <c r="AR40" s="195"/>
+      <c r="AS40" s="195"/>
+      <c r="AT40" s="195"/>
+      <c r="AU40" s="195"/>
+      <c r="AV40" s="195"/>
+      <c r="AW40" s="195"/>
+      <c r="AX40" s="195"/>
+      <c r="AY40" s="195"/>
+      <c r="AZ40" s="195"/>
+      <c r="BA40" s="195"/>
+      <c r="BB40" s="195"/>
+      <c r="BC40" s="196"/>
     </row>
     <row r="41" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="83" t="s">
@@ -5345,12 +5362,12 @@
       <c r="I41" s="84"/>
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="89"/>
-      <c r="O41" s="89"/>
-      <c r="P41" s="89"/>
-      <c r="Q41" s="89"/>
+      <c r="L41" s="91"/>
+      <c r="M41" s="91"/>
+      <c r="N41" s="91"/>
+      <c r="O41" s="91"/>
+      <c r="P41" s="91"/>
+      <c r="Q41" s="91"/>
       <c r="R41" s="23"/>
       <c r="S41" s="23"/>
       <c r="T41" s="23"/>
@@ -5371,27 +5388,27 @@
       <c r="AI41" s="23"/>
       <c r="AJ41" s="23"/>
       <c r="AK41" s="24"/>
-      <c r="AM41" s="192"/>
-      <c r="AN41" s="193"/>
-      <c r="AO41" s="193"/>
-      <c r="AP41" s="193"/>
-      <c r="AQ41" s="193"/>
-      <c r="AR41" s="193"/>
-      <c r="AS41" s="193"/>
-      <c r="AT41" s="193"/>
-      <c r="AU41" s="193"/>
-      <c r="AV41" s="193"/>
-      <c r="AW41" s="193"/>
-      <c r="AX41" s="193"/>
-      <c r="AY41" s="193"/>
-      <c r="AZ41" s="193"/>
-      <c r="BA41" s="193"/>
-      <c r="BB41" s="193"/>
-      <c r="BC41" s="194"/>
+      <c r="AM41" s="194"/>
+      <c r="AN41" s="195"/>
+      <c r="AO41" s="195"/>
+      <c r="AP41" s="195"/>
+      <c r="AQ41" s="195"/>
+      <c r="AR41" s="195"/>
+      <c r="AS41" s="195"/>
+      <c r="AT41" s="195"/>
+      <c r="AU41" s="195"/>
+      <c r="AV41" s="195"/>
+      <c r="AW41" s="195"/>
+      <c r="AX41" s="195"/>
+      <c r="AY41" s="195"/>
+      <c r="AZ41" s="195"/>
+      <c r="BA41" s="195"/>
+      <c r="BB41" s="195"/>
+      <c r="BC41" s="196"/>
     </row>
     <row r="42" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="40">
-        <v>32</v>
+        <v>31.3</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -5413,11 +5430,11 @@
       <c r="S42" s="25"/>
       <c r="T42" s="25"/>
       <c r="U42" s="25"/>
-      <c r="V42" s="210"/>
-      <c r="W42" s="210"/>
-      <c r="X42" s="210"/>
-      <c r="Y42" s="210"/>
-      <c r="Z42" s="210"/>
+      <c r="V42" s="212"/>
+      <c r="W42" s="212"/>
+      <c r="X42" s="212"/>
+      <c r="Y42" s="212"/>
+      <c r="Z42" s="212"/>
       <c r="AA42" s="25"/>
       <c r="AB42" s="25"/>
       <c r="AC42" s="25"/>
@@ -5429,784 +5446,784 @@
       <c r="AI42" s="25"/>
       <c r="AJ42" s="25"/>
       <c r="AK42" s="26"/>
-      <c r="AM42" s="192"/>
-      <c r="AN42" s="193"/>
-      <c r="AO42" s="193"/>
-      <c r="AP42" s="193"/>
-      <c r="AQ42" s="193"/>
-      <c r="AR42" s="193"/>
-      <c r="AS42" s="193"/>
-      <c r="AT42" s="193"/>
-      <c r="AU42" s="193"/>
-      <c r="AV42" s="193"/>
-      <c r="AW42" s="193"/>
-      <c r="AX42" s="193"/>
-      <c r="AY42" s="193"/>
-      <c r="AZ42" s="193"/>
-      <c r="BA42" s="193"/>
-      <c r="BB42" s="193"/>
-      <c r="BC42" s="194"/>
+      <c r="AM42" s="194"/>
+      <c r="AN42" s="195"/>
+      <c r="AO42" s="195"/>
+      <c r="AP42" s="195"/>
+      <c r="AQ42" s="195"/>
+      <c r="AR42" s="195"/>
+      <c r="AS42" s="195"/>
+      <c r="AT42" s="195"/>
+      <c r="AU42" s="195"/>
+      <c r="AV42" s="195"/>
+      <c r="AW42" s="195"/>
+      <c r="AX42" s="195"/>
+      <c r="AY42" s="195"/>
+      <c r="AZ42" s="195"/>
+      <c r="BA42" s="195"/>
+      <c r="BB42" s="195"/>
+      <c r="BC42" s="196"/>
     </row>
     <row r="43" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="208" t="s">
+      <c r="A43" s="210" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="208"/>
-      <c r="C43" s="208"/>
-      <c r="D43" s="208"/>
-      <c r="E43" s="208"/>
-      <c r="F43" s="208"/>
-      <c r="G43" s="208"/>
-      <c r="H43" s="208"/>
-      <c r="I43" s="208"/>
-      <c r="J43" s="208"/>
-      <c r="K43" s="208"/>
-      <c r="L43" s="208"/>
-      <c r="M43" s="208"/>
-      <c r="N43" s="208"/>
-      <c r="O43" s="208"/>
-      <c r="P43" s="208"/>
-      <c r="Q43" s="208"/>
-      <c r="R43" s="208"/>
-      <c r="S43" s="208"/>
-      <c r="T43" s="208"/>
-      <c r="U43" s="208"/>
-      <c r="V43" s="208"/>
-      <c r="W43" s="208"/>
-      <c r="X43" s="208"/>
-      <c r="Y43" s="208"/>
-      <c r="Z43" s="208"/>
-      <c r="AA43" s="208"/>
-      <c r="AB43" s="208"/>
-      <c r="AC43" s="208"/>
-      <c r="AD43" s="208"/>
-      <c r="AE43" s="208"/>
-      <c r="AF43" s="208"/>
-      <c r="AG43" s="208"/>
-      <c r="AH43" s="208"/>
-      <c r="AI43" s="208"/>
-      <c r="AJ43" s="208"/>
-      <c r="AK43" s="208"/>
+      <c r="B43" s="210"/>
+      <c r="C43" s="210"/>
+      <c r="D43" s="210"/>
+      <c r="E43" s="210"/>
+      <c r="F43" s="210"/>
+      <c r="G43" s="210"/>
+      <c r="H43" s="210"/>
+      <c r="I43" s="210"/>
+      <c r="J43" s="210"/>
+      <c r="K43" s="210"/>
+      <c r="L43" s="210"/>
+      <c r="M43" s="210"/>
+      <c r="N43" s="210"/>
+      <c r="O43" s="210"/>
+      <c r="P43" s="210"/>
+      <c r="Q43" s="210"/>
+      <c r="R43" s="210"/>
+      <c r="S43" s="210"/>
+      <c r="T43" s="210"/>
+      <c r="U43" s="210"/>
+      <c r="V43" s="210"/>
+      <c r="W43" s="210"/>
+      <c r="X43" s="210"/>
+      <c r="Y43" s="210"/>
+      <c r="Z43" s="210"/>
+      <c r="AA43" s="210"/>
+      <c r="AB43" s="210"/>
+      <c r="AC43" s="210"/>
+      <c r="AD43" s="210"/>
+      <c r="AE43" s="210"/>
+      <c r="AF43" s="210"/>
+      <c r="AG43" s="210"/>
+      <c r="AH43" s="210"/>
+      <c r="AI43" s="210"/>
+      <c r="AJ43" s="210"/>
+      <c r="AK43" s="210"/>
       <c r="AL43" s="11"/>
-      <c r="AM43" s="192"/>
-      <c r="AN43" s="193"/>
-      <c r="AO43" s="193"/>
-      <c r="AP43" s="193"/>
-      <c r="AQ43" s="193"/>
-      <c r="AR43" s="193"/>
-      <c r="AS43" s="193"/>
-      <c r="AT43" s="193"/>
-      <c r="AU43" s="193"/>
-      <c r="AV43" s="193"/>
-      <c r="AW43" s="193"/>
-      <c r="AX43" s="193"/>
-      <c r="AY43" s="193"/>
-      <c r="AZ43" s="193"/>
-      <c r="BA43" s="193"/>
-      <c r="BB43" s="193"/>
-      <c r="BC43" s="194"/>
+      <c r="AM43" s="194"/>
+      <c r="AN43" s="195"/>
+      <c r="AO43" s="195"/>
+      <c r="AP43" s="195"/>
+      <c r="AQ43" s="195"/>
+      <c r="AR43" s="195"/>
+      <c r="AS43" s="195"/>
+      <c r="AT43" s="195"/>
+      <c r="AU43" s="195"/>
+      <c r="AV43" s="195"/>
+      <c r="AW43" s="195"/>
+      <c r="AX43" s="195"/>
+      <c r="AY43" s="195"/>
+      <c r="AZ43" s="195"/>
+      <c r="BA43" s="195"/>
+      <c r="BB43" s="195"/>
+      <c r="BC43" s="196"/>
     </row>
     <row r="44" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="209"/>
-      <c r="B44" s="209"/>
-      <c r="C44" s="209"/>
-      <c r="D44" s="209"/>
-      <c r="E44" s="209"/>
-      <c r="F44" s="209"/>
-      <c r="G44" s="209"/>
-      <c r="H44" s="209"/>
-      <c r="I44" s="209"/>
-      <c r="J44" s="209"/>
-      <c r="K44" s="209"/>
-      <c r="L44" s="209"/>
-      <c r="M44" s="209"/>
-      <c r="N44" s="209"/>
-      <c r="O44" s="209"/>
-      <c r="P44" s="209"/>
-      <c r="Q44" s="209"/>
-      <c r="R44" s="209"/>
-      <c r="S44" s="209"/>
-      <c r="T44" s="209"/>
-      <c r="U44" s="209"/>
-      <c r="V44" s="209"/>
-      <c r="W44" s="209"/>
-      <c r="X44" s="209"/>
-      <c r="Y44" s="209"/>
-      <c r="Z44" s="209"/>
-      <c r="AA44" s="209"/>
-      <c r="AB44" s="209"/>
-      <c r="AC44" s="209"/>
-      <c r="AD44" s="209"/>
-      <c r="AE44" s="209"/>
-      <c r="AF44" s="209"/>
-      <c r="AG44" s="209"/>
-      <c r="AH44" s="209"/>
-      <c r="AI44" s="209"/>
-      <c r="AJ44" s="209"/>
-      <c r="AK44" s="209"/>
+      <c r="A44" s="211"/>
+      <c r="B44" s="211"/>
+      <c r="C44" s="211"/>
+      <c r="D44" s="211"/>
+      <c r="E44" s="211"/>
+      <c r="F44" s="211"/>
+      <c r="G44" s="211"/>
+      <c r="H44" s="211"/>
+      <c r="I44" s="211"/>
+      <c r="J44" s="211"/>
+      <c r="K44" s="211"/>
+      <c r="L44" s="211"/>
+      <c r="M44" s="211"/>
+      <c r="N44" s="211"/>
+      <c r="O44" s="211"/>
+      <c r="P44" s="211"/>
+      <c r="Q44" s="211"/>
+      <c r="R44" s="211"/>
+      <c r="S44" s="211"/>
+      <c r="T44" s="211"/>
+      <c r="U44" s="211"/>
+      <c r="V44" s="211"/>
+      <c r="W44" s="211"/>
+      <c r="X44" s="211"/>
+      <c r="Y44" s="211"/>
+      <c r="Z44" s="211"/>
+      <c r="AA44" s="211"/>
+      <c r="AB44" s="211"/>
+      <c r="AC44" s="211"/>
+      <c r="AD44" s="211"/>
+      <c r="AE44" s="211"/>
+      <c r="AF44" s="211"/>
+      <c r="AG44" s="211"/>
+      <c r="AH44" s="211"/>
+      <c r="AI44" s="211"/>
+      <c r="AJ44" s="211"/>
+      <c r="AK44" s="211"/>
       <c r="AL44" s="11"/>
-      <c r="AM44" s="192"/>
-      <c r="AN44" s="193"/>
-      <c r="AO44" s="193"/>
-      <c r="AP44" s="193"/>
-      <c r="AQ44" s="193"/>
-      <c r="AR44" s="193"/>
-      <c r="AS44" s="193"/>
-      <c r="AT44" s="193"/>
-      <c r="AU44" s="193"/>
-      <c r="AV44" s="193"/>
-      <c r="AW44" s="193"/>
-      <c r="AX44" s="193"/>
-      <c r="AY44" s="193"/>
-      <c r="AZ44" s="193"/>
-      <c r="BA44" s="193"/>
-      <c r="BB44" s="193"/>
-      <c r="BC44" s="194"/>
+      <c r="AM44" s="194"/>
+      <c r="AN44" s="195"/>
+      <c r="AO44" s="195"/>
+      <c r="AP44" s="195"/>
+      <c r="AQ44" s="195"/>
+      <c r="AR44" s="195"/>
+      <c r="AS44" s="195"/>
+      <c r="AT44" s="195"/>
+      <c r="AU44" s="195"/>
+      <c r="AV44" s="195"/>
+      <c r="AW44" s="195"/>
+      <c r="AX44" s="195"/>
+      <c r="AY44" s="195"/>
+      <c r="AZ44" s="195"/>
+      <c r="BA44" s="195"/>
+      <c r="BB44" s="195"/>
+      <c r="BC44" s="196"/>
     </row>
     <row r="45" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="215" t="s">
+      <c r="A45" s="217" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="216"/>
-      <c r="C45" s="216"/>
-      <c r="D45" s="216"/>
-      <c r="E45" s="216"/>
-      <c r="F45" s="216"/>
-      <c r="G45" s="216"/>
-      <c r="H45" s="216"/>
-      <c r="I45" s="216"/>
-      <c r="J45" s="216"/>
-      <c r="K45" s="216"/>
-      <c r="L45" s="216"/>
-      <c r="M45" s="216"/>
-      <c r="N45" s="216"/>
-      <c r="O45" s="216"/>
-      <c r="P45" s="216"/>
-      <c r="Q45" s="216"/>
-      <c r="R45" s="216"/>
-      <c r="S45" s="216"/>
-      <c r="T45" s="216"/>
-      <c r="U45" s="216"/>
-      <c r="V45" s="216"/>
-      <c r="W45" s="216"/>
-      <c r="X45" s="216"/>
-      <c r="Y45" s="216"/>
-      <c r="Z45" s="216"/>
-      <c r="AA45" s="216"/>
-      <c r="AB45" s="216"/>
-      <c r="AC45" s="216"/>
-      <c r="AD45" s="216"/>
-      <c r="AE45" s="216"/>
-      <c r="AF45" s="216"/>
-      <c r="AG45" s="216"/>
-      <c r="AH45" s="216"/>
-      <c r="AI45" s="216"/>
-      <c r="AJ45" s="216"/>
-      <c r="AK45" s="217"/>
+      <c r="B45" s="218"/>
+      <c r="C45" s="218"/>
+      <c r="D45" s="218"/>
+      <c r="E45" s="218"/>
+      <c r="F45" s="218"/>
+      <c r="G45" s="218"/>
+      <c r="H45" s="218"/>
+      <c r="I45" s="218"/>
+      <c r="J45" s="218"/>
+      <c r="K45" s="218"/>
+      <c r="L45" s="218"/>
+      <c r="M45" s="218"/>
+      <c r="N45" s="218"/>
+      <c r="O45" s="218"/>
+      <c r="P45" s="218"/>
+      <c r="Q45" s="218"/>
+      <c r="R45" s="218"/>
+      <c r="S45" s="218"/>
+      <c r="T45" s="218"/>
+      <c r="U45" s="218"/>
+      <c r="V45" s="218"/>
+      <c r="W45" s="218"/>
+      <c r="X45" s="218"/>
+      <c r="Y45" s="218"/>
+      <c r="Z45" s="218"/>
+      <c r="AA45" s="218"/>
+      <c r="AB45" s="218"/>
+      <c r="AC45" s="218"/>
+      <c r="AD45" s="218"/>
+      <c r="AE45" s="218"/>
+      <c r="AF45" s="218"/>
+      <c r="AG45" s="218"/>
+      <c r="AH45" s="218"/>
+      <c r="AI45" s="218"/>
+      <c r="AJ45" s="218"/>
+      <c r="AK45" s="219"/>
       <c r="AL45" s="11"/>
-      <c r="AM45" s="192"/>
-      <c r="AN45" s="193"/>
-      <c r="AO45" s="193"/>
-      <c r="AP45" s="193"/>
-      <c r="AQ45" s="193"/>
-      <c r="AR45" s="193"/>
-      <c r="AS45" s="193"/>
-      <c r="AT45" s="193"/>
-      <c r="AU45" s="193"/>
-      <c r="AV45" s="193"/>
-      <c r="AW45" s="193"/>
-      <c r="AX45" s="193"/>
-      <c r="AY45" s="193"/>
-      <c r="AZ45" s="193"/>
-      <c r="BA45" s="193"/>
-      <c r="BB45" s="193"/>
-      <c r="BC45" s="194"/>
+      <c r="AM45" s="194"/>
+      <c r="AN45" s="195"/>
+      <c r="AO45" s="195"/>
+      <c r="AP45" s="195"/>
+      <c r="AQ45" s="195"/>
+      <c r="AR45" s="195"/>
+      <c r="AS45" s="195"/>
+      <c r="AT45" s="195"/>
+      <c r="AU45" s="195"/>
+      <c r="AV45" s="195"/>
+      <c r="AW45" s="195"/>
+      <c r="AX45" s="195"/>
+      <c r="AY45" s="195"/>
+      <c r="AZ45" s="195"/>
+      <c r="BA45" s="195"/>
+      <c r="BB45" s="195"/>
+      <c r="BC45" s="196"/>
     </row>
     <row r="46" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="214" t="s">
+      <c r="A46" s="216" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="198"/>
-      <c r="C46" s="198"/>
-      <c r="D46" s="198"/>
-      <c r="E46" s="198"/>
-      <c r="F46" s="198"/>
-      <c r="G46" s="198"/>
-      <c r="H46" s="198"/>
-      <c r="I46" s="198"/>
-      <c r="J46" s="198" t="s">
+      <c r="B46" s="200"/>
+      <c r="C46" s="200"/>
+      <c r="D46" s="200"/>
+      <c r="E46" s="200"/>
+      <c r="F46" s="200"/>
+      <c r="G46" s="200"/>
+      <c r="H46" s="200"/>
+      <c r="I46" s="200"/>
+      <c r="J46" s="200" t="s">
         <v>51</v>
       </c>
-      <c r="K46" s="198"/>
-      <c r="L46" s="198"/>
-      <c r="M46" s="198"/>
-      <c r="N46" s="198"/>
-      <c r="O46" s="198"/>
-      <c r="P46" s="198"/>
-      <c r="Q46" s="198"/>
-      <c r="R46" s="198"/>
-      <c r="S46" s="198"/>
-      <c r="T46" s="198" t="s">
+      <c r="K46" s="200"/>
+      <c r="L46" s="200"/>
+      <c r="M46" s="200"/>
+      <c r="N46" s="200"/>
+      <c r="O46" s="200"/>
+      <c r="P46" s="200"/>
+      <c r="Q46" s="200"/>
+      <c r="R46" s="200"/>
+      <c r="S46" s="200"/>
+      <c r="T46" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="U46" s="198"/>
-      <c r="V46" s="198"/>
-      <c r="W46" s="198"/>
-      <c r="X46" s="198"/>
-      <c r="Y46" s="198"/>
-      <c r="Z46" s="198"/>
-      <c r="AA46" s="198"/>
-      <c r="AB46" s="198"/>
-      <c r="AC46" s="198" t="s">
+      <c r="U46" s="200"/>
+      <c r="V46" s="200"/>
+      <c r="W46" s="200"/>
+      <c r="X46" s="200"/>
+      <c r="Y46" s="200"/>
+      <c r="Z46" s="200"/>
+      <c r="AA46" s="200"/>
+      <c r="AB46" s="200"/>
+      <c r="AC46" s="200" t="s">
         <v>53</v>
       </c>
-      <c r="AD46" s="198"/>
-      <c r="AE46" s="198"/>
-      <c r="AF46" s="198"/>
-      <c r="AG46" s="198"/>
-      <c r="AH46" s="198"/>
-      <c r="AI46" s="198"/>
-      <c r="AJ46" s="198"/>
-      <c r="AK46" s="199"/>
-      <c r="AM46" s="192"/>
-      <c r="AN46" s="193"/>
-      <c r="AO46" s="193"/>
-      <c r="AP46" s="193"/>
-      <c r="AQ46" s="193"/>
-      <c r="AR46" s="193"/>
-      <c r="AS46" s="193"/>
-      <c r="AT46" s="193"/>
-      <c r="AU46" s="193"/>
-      <c r="AV46" s="193"/>
-      <c r="AW46" s="193"/>
-      <c r="AX46" s="193"/>
-      <c r="AY46" s="193"/>
-      <c r="AZ46" s="193"/>
-      <c r="BA46" s="193"/>
-      <c r="BB46" s="193"/>
-      <c r="BC46" s="194"/>
+      <c r="AD46" s="200"/>
+      <c r="AE46" s="200"/>
+      <c r="AF46" s="200"/>
+      <c r="AG46" s="200"/>
+      <c r="AH46" s="200"/>
+      <c r="AI46" s="200"/>
+      <c r="AJ46" s="200"/>
+      <c r="AK46" s="201"/>
+      <c r="AM46" s="194"/>
+      <c r="AN46" s="195"/>
+      <c r="AO46" s="195"/>
+      <c r="AP46" s="195"/>
+      <c r="AQ46" s="195"/>
+      <c r="AR46" s="195"/>
+      <c r="AS46" s="195"/>
+      <c r="AT46" s="195"/>
+      <c r="AU46" s="195"/>
+      <c r="AV46" s="195"/>
+      <c r="AW46" s="195"/>
+      <c r="AX46" s="195"/>
+      <c r="AY46" s="195"/>
+      <c r="AZ46" s="195"/>
+      <c r="BA46" s="195"/>
+      <c r="BB46" s="195"/>
+      <c r="BC46" s="196"/>
     </row>
     <row r="47" spans="1:55" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="28"/>
-      <c r="B47" s="200">
+      <c r="B47" s="202">
         <v>100000</v>
       </c>
-      <c r="C47" s="200"/>
-      <c r="D47" s="200"/>
-      <c r="E47" s="200"/>
-      <c r="F47" s="200"/>
-      <c r="G47" s="200"/>
-      <c r="H47" s="200"/>
+      <c r="C47" s="202"/>
+      <c r="D47" s="202"/>
+      <c r="E47" s="202"/>
+      <c r="F47" s="202"/>
+      <c r="G47" s="202"/>
+      <c r="H47" s="202"/>
       <c r="I47" s="19"/>
-      <c r="J47" s="200">
+      <c r="J47" s="202">
         <v>4000</v>
       </c>
-      <c r="K47" s="200"/>
-      <c r="L47" s="200"/>
-      <c r="M47" s="200"/>
-      <c r="N47" s="200"/>
-      <c r="O47" s="200"/>
-      <c r="P47" s="200"/>
-      <c r="Q47" s="200"/>
-      <c r="R47" s="200"/>
-      <c r="S47" s="200"/>
-      <c r="T47" s="200">
+      <c r="K47" s="202"/>
+      <c r="L47" s="202"/>
+      <c r="M47" s="202"/>
+      <c r="N47" s="202"/>
+      <c r="O47" s="202"/>
+      <c r="P47" s="202"/>
+      <c r="Q47" s="202"/>
+      <c r="R47" s="202"/>
+      <c r="S47" s="202"/>
+      <c r="T47" s="202">
         <v>8500</v>
       </c>
-      <c r="U47" s="200"/>
-      <c r="V47" s="200"/>
-      <c r="W47" s="200"/>
-      <c r="X47" s="200"/>
-      <c r="Y47" s="200"/>
-      <c r="Z47" s="200"/>
-      <c r="AA47" s="200"/>
-      <c r="AB47" s="200"/>
-      <c r="AC47" s="218">
+      <c r="U47" s="202"/>
+      <c r="V47" s="202"/>
+      <c r="W47" s="202"/>
+      <c r="X47" s="202"/>
+      <c r="Y47" s="202"/>
+      <c r="Z47" s="202"/>
+      <c r="AA47" s="202"/>
+      <c r="AB47" s="202"/>
+      <c r="AC47" s="220">
         <v>8500</v>
       </c>
-      <c r="AD47" s="218"/>
-      <c r="AE47" s="218"/>
-      <c r="AF47" s="218"/>
-      <c r="AG47" s="218"/>
-      <c r="AH47" s="218"/>
-      <c r="AI47" s="218"/>
-      <c r="AJ47" s="218"/>
-      <c r="AK47" s="219"/>
-      <c r="AM47" s="192"/>
-      <c r="AN47" s="193"/>
-      <c r="AO47" s="193"/>
-      <c r="AP47" s="193"/>
-      <c r="AQ47" s="193"/>
-      <c r="AR47" s="193"/>
-      <c r="AS47" s="193"/>
-      <c r="AT47" s="193"/>
-      <c r="AU47" s="193"/>
-      <c r="AV47" s="193"/>
-      <c r="AW47" s="193"/>
-      <c r="AX47" s="193"/>
-      <c r="AY47" s="193"/>
-      <c r="AZ47" s="193"/>
-      <c r="BA47" s="193"/>
-      <c r="BB47" s="193"/>
-      <c r="BC47" s="194"/>
+      <c r="AD47" s="220"/>
+      <c r="AE47" s="220"/>
+      <c r="AF47" s="220"/>
+      <c r="AG47" s="220"/>
+      <c r="AH47" s="220"/>
+      <c r="AI47" s="220"/>
+      <c r="AJ47" s="220"/>
+      <c r="AK47" s="221"/>
+      <c r="AM47" s="194"/>
+      <c r="AN47" s="195"/>
+      <c r="AO47" s="195"/>
+      <c r="AP47" s="195"/>
+      <c r="AQ47" s="195"/>
+      <c r="AR47" s="195"/>
+      <c r="AS47" s="195"/>
+      <c r="AT47" s="195"/>
+      <c r="AU47" s="195"/>
+      <c r="AV47" s="195"/>
+      <c r="AW47" s="195"/>
+      <c r="AX47" s="195"/>
+      <c r="AY47" s="195"/>
+      <c r="AZ47" s="195"/>
+      <c r="BA47" s="195"/>
+      <c r="BB47" s="195"/>
+      <c r="BC47" s="196"/>
     </row>
     <row r="48" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="211" t="s">
+      <c r="A48" s="213" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="212"/>
-      <c r="C48" s="212"/>
-      <c r="D48" s="212"/>
-      <c r="E48" s="212"/>
-      <c r="F48" s="212"/>
-      <c r="G48" s="212"/>
-      <c r="H48" s="212"/>
-      <c r="I48" s="212"/>
-      <c r="J48" s="198" t="s">
+      <c r="B48" s="214"/>
+      <c r="C48" s="214"/>
+      <c r="D48" s="214"/>
+      <c r="E48" s="214"/>
+      <c r="F48" s="214"/>
+      <c r="G48" s="214"/>
+      <c r="H48" s="214"/>
+      <c r="I48" s="214"/>
+      <c r="J48" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="K48" s="198"/>
-      <c r="L48" s="198"/>
-      <c r="M48" s="198"/>
-      <c r="N48" s="198"/>
-      <c r="O48" s="198"/>
-      <c r="P48" s="198"/>
-      <c r="Q48" s="198"/>
-      <c r="R48" s="198"/>
-      <c r="S48" s="198"/>
-      <c r="T48" s="198" t="s">
+      <c r="K48" s="200"/>
+      <c r="L48" s="200"/>
+      <c r="M48" s="200"/>
+      <c r="N48" s="200"/>
+      <c r="O48" s="200"/>
+      <c r="P48" s="200"/>
+      <c r="Q48" s="200"/>
+      <c r="R48" s="200"/>
+      <c r="S48" s="200"/>
+      <c r="T48" s="200" t="s">
         <v>55</v>
       </c>
-      <c r="U48" s="198"/>
-      <c r="V48" s="198"/>
-      <c r="W48" s="198"/>
-      <c r="X48" s="198"/>
-      <c r="Y48" s="198"/>
-      <c r="Z48" s="198"/>
-      <c r="AA48" s="198"/>
-      <c r="AB48" s="198"/>
-      <c r="AC48" s="198" t="s">
+      <c r="U48" s="200"/>
+      <c r="V48" s="200"/>
+      <c r="W48" s="200"/>
+      <c r="X48" s="200"/>
+      <c r="Y48" s="200"/>
+      <c r="Z48" s="200"/>
+      <c r="AA48" s="200"/>
+      <c r="AB48" s="200"/>
+      <c r="AC48" s="200" t="s">
         <v>56</v>
       </c>
-      <c r="AD48" s="198"/>
-      <c r="AE48" s="198"/>
-      <c r="AF48" s="198"/>
-      <c r="AG48" s="198"/>
-      <c r="AH48" s="198"/>
-      <c r="AI48" s="198"/>
-      <c r="AJ48" s="198"/>
-      <c r="AK48" s="199"/>
-      <c r="AM48" s="192"/>
-      <c r="AN48" s="193"/>
-      <c r="AO48" s="193"/>
-      <c r="AP48" s="193"/>
-      <c r="AQ48" s="193"/>
-      <c r="AR48" s="193"/>
-      <c r="AS48" s="193"/>
-      <c r="AT48" s="193"/>
-      <c r="AU48" s="193"/>
-      <c r="AV48" s="193"/>
-      <c r="AW48" s="193"/>
-      <c r="AX48" s="193"/>
-      <c r="AY48" s="193"/>
-      <c r="AZ48" s="193"/>
-      <c r="BA48" s="193"/>
-      <c r="BB48" s="193"/>
-      <c r="BC48" s="194"/>
+      <c r="AD48" s="200"/>
+      <c r="AE48" s="200"/>
+      <c r="AF48" s="200"/>
+      <c r="AG48" s="200"/>
+      <c r="AH48" s="200"/>
+      <c r="AI48" s="200"/>
+      <c r="AJ48" s="200"/>
+      <c r="AK48" s="201"/>
+      <c r="AM48" s="194"/>
+      <c r="AN48" s="195"/>
+      <c r="AO48" s="195"/>
+      <c r="AP48" s="195"/>
+      <c r="AQ48" s="195"/>
+      <c r="AR48" s="195"/>
+      <c r="AS48" s="195"/>
+      <c r="AT48" s="195"/>
+      <c r="AU48" s="195"/>
+      <c r="AV48" s="195"/>
+      <c r="AW48" s="195"/>
+      <c r="AX48" s="195"/>
+      <c r="AY48" s="195"/>
+      <c r="AZ48" s="195"/>
+      <c r="BA48" s="195"/>
+      <c r="BB48" s="195"/>
+      <c r="BC48" s="196"/>
     </row>
     <row r="49" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="213">
+      <c r="A49" s="215">
         <v>1000</v>
       </c>
-      <c r="B49" s="200"/>
-      <c r="C49" s="200"/>
-      <c r="D49" s="200"/>
-      <c r="E49" s="200"/>
-      <c r="F49" s="200"/>
-      <c r="G49" s="200"/>
-      <c r="H49" s="200"/>
-      <c r="I49" s="200"/>
-      <c r="J49" s="200">
+      <c r="B49" s="202"/>
+      <c r="C49" s="202"/>
+      <c r="D49" s="202"/>
+      <c r="E49" s="202"/>
+      <c r="F49" s="202"/>
+      <c r="G49" s="202"/>
+      <c r="H49" s="202"/>
+      <c r="I49" s="202"/>
+      <c r="J49" s="202">
         <v>8000</v>
       </c>
-      <c r="K49" s="200"/>
-      <c r="L49" s="200"/>
-      <c r="M49" s="200"/>
-      <c r="N49" s="200"/>
-      <c r="O49" s="200"/>
-      <c r="P49" s="200"/>
-      <c r="Q49" s="200"/>
-      <c r="R49" s="200"/>
-      <c r="S49" s="200"/>
-      <c r="T49" s="200">
+      <c r="K49" s="202"/>
+      <c r="L49" s="202"/>
+      <c r="M49" s="202"/>
+      <c r="N49" s="202"/>
+      <c r="O49" s="202"/>
+      <c r="P49" s="202"/>
+      <c r="Q49" s="202"/>
+      <c r="R49" s="202"/>
+      <c r="S49" s="202"/>
+      <c r="T49" s="202">
         <v>14000</v>
       </c>
-      <c r="U49" s="200"/>
-      <c r="V49" s="200"/>
-      <c r="W49" s="200"/>
-      <c r="X49" s="200"/>
-      <c r="Y49" s="200"/>
-      <c r="Z49" s="200"/>
-      <c r="AA49" s="200"/>
-      <c r="AB49" s="200"/>
-      <c r="AC49" s="200" t="s">
+      <c r="U49" s="202"/>
+      <c r="V49" s="202"/>
+      <c r="W49" s="202"/>
+      <c r="X49" s="202"/>
+      <c r="Y49" s="202"/>
+      <c r="Z49" s="202"/>
+      <c r="AA49" s="202"/>
+      <c r="AB49" s="202"/>
+      <c r="AC49" s="202" t="s">
         <v>66</v>
       </c>
-      <c r="AD49" s="200"/>
-      <c r="AE49" s="200"/>
-      <c r="AF49" s="200"/>
-      <c r="AG49" s="200"/>
-      <c r="AH49" s="200"/>
-      <c r="AI49" s="200"/>
-      <c r="AJ49" s="200"/>
-      <c r="AK49" s="201"/>
-      <c r="AM49" s="192"/>
-      <c r="AN49" s="193"/>
-      <c r="AO49" s="193"/>
-      <c r="AP49" s="193"/>
-      <c r="AQ49" s="193"/>
-      <c r="AR49" s="193"/>
-      <c r="AS49" s="193"/>
-      <c r="AT49" s="193"/>
-      <c r="AU49" s="193"/>
-      <c r="AV49" s="193"/>
-      <c r="AW49" s="193"/>
-      <c r="AX49" s="193"/>
-      <c r="AY49" s="193"/>
-      <c r="AZ49" s="193"/>
-      <c r="BA49" s="193"/>
-      <c r="BB49" s="193"/>
-      <c r="BC49" s="194"/>
+      <c r="AD49" s="202"/>
+      <c r="AE49" s="202"/>
+      <c r="AF49" s="202"/>
+      <c r="AG49" s="202"/>
+      <c r="AH49" s="202"/>
+      <c r="AI49" s="202"/>
+      <c r="AJ49" s="202"/>
+      <c r="AK49" s="203"/>
+      <c r="AM49" s="194"/>
+      <c r="AN49" s="195"/>
+      <c r="AO49" s="195"/>
+      <c r="AP49" s="195"/>
+      <c r="AQ49" s="195"/>
+      <c r="AR49" s="195"/>
+      <c r="AS49" s="195"/>
+      <c r="AT49" s="195"/>
+      <c r="AU49" s="195"/>
+      <c r="AV49" s="195"/>
+      <c r="AW49" s="195"/>
+      <c r="AX49" s="195"/>
+      <c r="AY49" s="195"/>
+      <c r="AZ49" s="195"/>
+      <c r="BA49" s="195"/>
+      <c r="BB49" s="195"/>
+      <c r="BC49" s="196"/>
     </row>
     <row r="50" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="202" t="s">
+      <c r="A50" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="203"/>
-      <c r="C50" s="203"/>
-      <c r="D50" s="203"/>
-      <c r="E50" s="203"/>
-      <c r="F50" s="203"/>
-      <c r="G50" s="203"/>
-      <c r="H50" s="203"/>
-      <c r="I50" s="203"/>
-      <c r="J50" s="203"/>
-      <c r="K50" s="203"/>
-      <c r="L50" s="203"/>
-      <c r="M50" s="203"/>
-      <c r="N50" s="203"/>
-      <c r="O50" s="203"/>
-      <c r="P50" s="203"/>
-      <c r="Q50" s="203"/>
-      <c r="R50" s="203"/>
-      <c r="S50" s="203"/>
-      <c r="T50" s="203"/>
-      <c r="U50" s="203"/>
-      <c r="V50" s="203"/>
-      <c r="W50" s="203"/>
-      <c r="X50" s="203"/>
-      <c r="Y50" s="203"/>
-      <c r="Z50" s="203"/>
-      <c r="AA50" s="203"/>
-      <c r="AB50" s="203"/>
-      <c r="AC50" s="203"/>
-      <c r="AD50" s="203"/>
-      <c r="AE50" s="203"/>
-      <c r="AF50" s="203"/>
-      <c r="AG50" s="203"/>
-      <c r="AH50" s="203"/>
-      <c r="AI50" s="203"/>
-      <c r="AJ50" s="203"/>
-      <c r="AK50" s="204"/>
-      <c r="AM50" s="192"/>
-      <c r="AN50" s="193"/>
-      <c r="AO50" s="193"/>
-      <c r="AP50" s="193"/>
-      <c r="AQ50" s="193"/>
-      <c r="AR50" s="193"/>
-      <c r="AS50" s="193"/>
-      <c r="AT50" s="193"/>
-      <c r="AU50" s="193"/>
-      <c r="AV50" s="193"/>
-      <c r="AW50" s="193"/>
-      <c r="AX50" s="193"/>
-      <c r="AY50" s="193"/>
-      <c r="AZ50" s="193"/>
-      <c r="BA50" s="193"/>
-      <c r="BB50" s="193"/>
-      <c r="BC50" s="194"/>
+      <c r="B50" s="205"/>
+      <c r="C50" s="205"/>
+      <c r="D50" s="205"/>
+      <c r="E50" s="205"/>
+      <c r="F50" s="205"/>
+      <c r="G50" s="205"/>
+      <c r="H50" s="205"/>
+      <c r="I50" s="205"/>
+      <c r="J50" s="205"/>
+      <c r="K50" s="205"/>
+      <c r="L50" s="205"/>
+      <c r="M50" s="205"/>
+      <c r="N50" s="205"/>
+      <c r="O50" s="205"/>
+      <c r="P50" s="205"/>
+      <c r="Q50" s="205"/>
+      <c r="R50" s="205"/>
+      <c r="S50" s="205"/>
+      <c r="T50" s="205"/>
+      <c r="U50" s="205"/>
+      <c r="V50" s="205"/>
+      <c r="W50" s="205"/>
+      <c r="X50" s="205"/>
+      <c r="Y50" s="205"/>
+      <c r="Z50" s="205"/>
+      <c r="AA50" s="205"/>
+      <c r="AB50" s="205"/>
+      <c r="AC50" s="205"/>
+      <c r="AD50" s="205"/>
+      <c r="AE50" s="205"/>
+      <c r="AF50" s="205"/>
+      <c r="AG50" s="205"/>
+      <c r="AH50" s="205"/>
+      <c r="AI50" s="205"/>
+      <c r="AJ50" s="205"/>
+      <c r="AK50" s="206"/>
+      <c r="AM50" s="194"/>
+      <c r="AN50" s="195"/>
+      <c r="AO50" s="195"/>
+      <c r="AP50" s="195"/>
+      <c r="AQ50" s="195"/>
+      <c r="AR50" s="195"/>
+      <c r="AS50" s="195"/>
+      <c r="AT50" s="195"/>
+      <c r="AU50" s="195"/>
+      <c r="AV50" s="195"/>
+      <c r="AW50" s="195"/>
+      <c r="AX50" s="195"/>
+      <c r="AY50" s="195"/>
+      <c r="AZ50" s="195"/>
+      <c r="BA50" s="195"/>
+      <c r="BB50" s="195"/>
+      <c r="BC50" s="196"/>
     </row>
     <row r="51" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="205"/>
-      <c r="B51" s="206"/>
-      <c r="C51" s="206"/>
-      <c r="D51" s="206"/>
-      <c r="E51" s="206"/>
-      <c r="F51" s="206"/>
-      <c r="G51" s="206"/>
-      <c r="H51" s="206"/>
-      <c r="I51" s="206"/>
-      <c r="J51" s="206"/>
-      <c r="K51" s="206"/>
-      <c r="L51" s="206"/>
-      <c r="M51" s="206"/>
-      <c r="N51" s="206"/>
-      <c r="O51" s="206"/>
-      <c r="P51" s="206"/>
-      <c r="Q51" s="206"/>
-      <c r="R51" s="206"/>
-      <c r="S51" s="206"/>
-      <c r="T51" s="206"/>
-      <c r="U51" s="206"/>
-      <c r="V51" s="206"/>
-      <c r="W51" s="206"/>
-      <c r="X51" s="206"/>
-      <c r="Y51" s="206"/>
-      <c r="Z51" s="206"/>
-      <c r="AA51" s="206"/>
-      <c r="AB51" s="206"/>
-      <c r="AC51" s="206"/>
-      <c r="AD51" s="206"/>
-      <c r="AE51" s="206"/>
-      <c r="AF51" s="206"/>
-      <c r="AG51" s="206"/>
-      <c r="AH51" s="206"/>
-      <c r="AI51" s="206"/>
-      <c r="AJ51" s="206"/>
-      <c r="AK51" s="207"/>
-      <c r="AM51" s="195"/>
-      <c r="AN51" s="196"/>
-      <c r="AO51" s="196"/>
-      <c r="AP51" s="196"/>
-      <c r="AQ51" s="196"/>
-      <c r="AR51" s="196"/>
-      <c r="AS51" s="196"/>
-      <c r="AT51" s="196"/>
-      <c r="AU51" s="196"/>
-      <c r="AV51" s="196"/>
-      <c r="AW51" s="196"/>
-      <c r="AX51" s="196"/>
-      <c r="AY51" s="196"/>
-      <c r="AZ51" s="196"/>
-      <c r="BA51" s="196"/>
-      <c r="BB51" s="196"/>
-      <c r="BC51" s="197"/>
+      <c r="A51" s="207"/>
+      <c r="B51" s="208"/>
+      <c r="C51" s="208"/>
+      <c r="D51" s="208"/>
+      <c r="E51" s="208"/>
+      <c r="F51" s="208"/>
+      <c r="G51" s="208"/>
+      <c r="H51" s="208"/>
+      <c r="I51" s="208"/>
+      <c r="J51" s="208"/>
+      <c r="K51" s="208"/>
+      <c r="L51" s="208"/>
+      <c r="M51" s="208"/>
+      <c r="N51" s="208"/>
+      <c r="O51" s="208"/>
+      <c r="P51" s="208"/>
+      <c r="Q51" s="208"/>
+      <c r="R51" s="208"/>
+      <c r="S51" s="208"/>
+      <c r="T51" s="208"/>
+      <c r="U51" s="208"/>
+      <c r="V51" s="208"/>
+      <c r="W51" s="208"/>
+      <c r="X51" s="208"/>
+      <c r="Y51" s="208"/>
+      <c r="Z51" s="208"/>
+      <c r="AA51" s="208"/>
+      <c r="AB51" s="208"/>
+      <c r="AC51" s="208"/>
+      <c r="AD51" s="208"/>
+      <c r="AE51" s="208"/>
+      <c r="AF51" s="208"/>
+      <c r="AG51" s="208"/>
+      <c r="AH51" s="208"/>
+      <c r="AI51" s="208"/>
+      <c r="AJ51" s="208"/>
+      <c r="AK51" s="209"/>
+      <c r="AM51" s="197"/>
+      <c r="AN51" s="198"/>
+      <c r="AO51" s="198"/>
+      <c r="AP51" s="198"/>
+      <c r="AQ51" s="198"/>
+      <c r="AR51" s="198"/>
+      <c r="AS51" s="198"/>
+      <c r="AT51" s="198"/>
+      <c r="AU51" s="198"/>
+      <c r="AV51" s="198"/>
+      <c r="AW51" s="198"/>
+      <c r="AX51" s="198"/>
+      <c r="AY51" s="198"/>
+      <c r="AZ51" s="198"/>
+      <c r="BA51" s="198"/>
+      <c r="BB51" s="198"/>
+      <c r="BC51" s="199"/>
     </row>
     <row r="52" spans="1:55" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="182" t="s">
+      <c r="A52" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="182"/>
-      <c r="C52" s="182"/>
-      <c r="D52" s="182"/>
-      <c r="E52" s="182"/>
-      <c r="F52" s="182"/>
-      <c r="G52" s="182"/>
-      <c r="H52" s="182"/>
-      <c r="I52" s="182"/>
-      <c r="J52" s="182"/>
-      <c r="K52" s="182"/>
-      <c r="L52" s="182"/>
-      <c r="M52" s="182"/>
-      <c r="N52" s="182"/>
-      <c r="O52" s="182"/>
-      <c r="P52" s="182"/>
-      <c r="Q52" s="182"/>
-      <c r="R52" s="182"/>
-      <c r="S52" s="182"/>
-      <c r="T52" s="182"/>
-      <c r="U52" s="182"/>
+      <c r="B52" s="184"/>
+      <c r="C52" s="184"/>
+      <c r="D52" s="184"/>
+      <c r="E52" s="184"/>
+      <c r="F52" s="184"/>
+      <c r="G52" s="184"/>
+      <c r="H52" s="184"/>
+      <c r="I52" s="184"/>
+      <c r="J52" s="184"/>
+      <c r="K52" s="184"/>
+      <c r="L52" s="184"/>
+      <c r="M52" s="184"/>
+      <c r="N52" s="184"/>
+      <c r="O52" s="184"/>
+      <c r="P52" s="184"/>
+      <c r="Q52" s="184"/>
+      <c r="R52" s="184"/>
+      <c r="S52" s="184"/>
+      <c r="T52" s="184"/>
+      <c r="U52" s="184"/>
       <c r="V52" s="34"/>
     </row>
     <row r="53" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="183"/>
-      <c r="B53" s="183"/>
-      <c r="C53" s="183"/>
-      <c r="D53" s="183"/>
-      <c r="E53" s="183"/>
-      <c r="F53" s="183"/>
-      <c r="G53" s="183"/>
-      <c r="H53" s="183"/>
-      <c r="I53" s="183"/>
-      <c r="J53" s="183"/>
-      <c r="K53" s="183"/>
-      <c r="L53" s="183"/>
-      <c r="M53" s="183"/>
-      <c r="N53" s="183"/>
-      <c r="O53" s="183"/>
-      <c r="P53" s="183"/>
-      <c r="Q53" s="183"/>
-      <c r="R53" s="183"/>
-      <c r="S53" s="183"/>
-      <c r="T53" s="183"/>
-      <c r="U53" s="183"/>
+      <c r="A53" s="185"/>
+      <c r="B53" s="185"/>
+      <c r="C53" s="185"/>
+      <c r="D53" s="185"/>
+      <c r="E53" s="185"/>
+      <c r="F53" s="185"/>
+      <c r="G53" s="185"/>
+      <c r="H53" s="185"/>
+      <c r="I53" s="185"/>
+      <c r="J53" s="185"/>
+      <c r="K53" s="185"/>
+      <c r="L53" s="185"/>
+      <c r="M53" s="185"/>
+      <c r="N53" s="185"/>
+      <c r="O53" s="185"/>
+      <c r="P53" s="185"/>
+      <c r="Q53" s="185"/>
+      <c r="R53" s="185"/>
+      <c r="S53" s="185"/>
+      <c r="T53" s="185"/>
+      <c r="U53" s="185"/>
       <c r="V53" s="35"/>
-      <c r="W53" s="184" t="s">
+      <c r="W53" s="186" t="s">
         <v>24</v>
       </c>
-      <c r="X53" s="185"/>
-      <c r="Y53" s="185"/>
-      <c r="Z53" s="185"/>
-      <c r="AA53" s="185"/>
-      <c r="AB53" s="185"/>
-      <c r="AC53" s="185"/>
-      <c r="AD53" s="185"/>
-      <c r="AE53" s="185"/>
-      <c r="AF53" s="185"/>
-      <c r="AG53" s="186"/>
-      <c r="AI53" s="187" t="s">
+      <c r="X53" s="187"/>
+      <c r="Y53" s="187"/>
+      <c r="Z53" s="187"/>
+      <c r="AA53" s="187"/>
+      <c r="AB53" s="187"/>
+      <c r="AC53" s="187"/>
+      <c r="AD53" s="187"/>
+      <c r="AE53" s="187"/>
+      <c r="AF53" s="187"/>
+      <c r="AG53" s="188"/>
+      <c r="AI53" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="AJ53" s="101"/>
-      <c r="AK53" s="101"/>
-      <c r="AL53" s="101"/>
-      <c r="AM53" s="101"/>
-      <c r="AN53" s="101"/>
-      <c r="AO53" s="101"/>
-      <c r="AP53" s="101"/>
-      <c r="AQ53" s="101"/>
-      <c r="AR53" s="101"/>
-      <c r="AS53" s="101"/>
-      <c r="AT53" s="101"/>
-      <c r="AU53" s="101"/>
-      <c r="AV53" s="101"/>
-      <c r="AW53" s="101"/>
-      <c r="AX53" s="101"/>
-      <c r="AY53" s="101"/>
-      <c r="AZ53" s="101"/>
-      <c r="BA53" s="101"/>
-      <c r="BB53" s="101"/>
-      <c r="BC53" s="188"/>
+      <c r="AJ53" s="103"/>
+      <c r="AK53" s="103"/>
+      <c r="AL53" s="103"/>
+      <c r="AM53" s="103"/>
+      <c r="AN53" s="103"/>
+      <c r="AO53" s="103"/>
+      <c r="AP53" s="103"/>
+      <c r="AQ53" s="103"/>
+      <c r="AR53" s="103"/>
+      <c r="AS53" s="103"/>
+      <c r="AT53" s="103"/>
+      <c r="AU53" s="103"/>
+      <c r="AV53" s="103"/>
+      <c r="AW53" s="103"/>
+      <c r="AX53" s="103"/>
+      <c r="AY53" s="103"/>
+      <c r="AZ53" s="103"/>
+      <c r="BA53" s="103"/>
+      <c r="BB53" s="103"/>
+      <c r="BC53" s="190"/>
     </row>
     <row r="54" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="183"/>
-      <c r="B54" s="183"/>
-      <c r="C54" s="183"/>
-      <c r="D54" s="183"/>
-      <c r="E54" s="183"/>
-      <c r="F54" s="183"/>
-      <c r="G54" s="183"/>
-      <c r="H54" s="183"/>
-      <c r="I54" s="183"/>
-      <c r="J54" s="183"/>
-      <c r="K54" s="183"/>
-      <c r="L54" s="183"/>
-      <c r="M54" s="183"/>
-      <c r="N54" s="183"/>
-      <c r="O54" s="183"/>
-      <c r="P54" s="183"/>
-      <c r="Q54" s="183"/>
-      <c r="R54" s="183"/>
-      <c r="S54" s="183"/>
-      <c r="T54" s="183"/>
-      <c r="U54" s="183"/>
+      <c r="A54" s="185"/>
+      <c r="B54" s="185"/>
+      <c r="C54" s="185"/>
+      <c r="D54" s="185"/>
+      <c r="E54" s="185"/>
+      <c r="F54" s="185"/>
+      <c r="G54" s="185"/>
+      <c r="H54" s="185"/>
+      <c r="I54" s="185"/>
+      <c r="J54" s="185"/>
+      <c r="K54" s="185"/>
+      <c r="L54" s="185"/>
+      <c r="M54" s="185"/>
+      <c r="N54" s="185"/>
+      <c r="O54" s="185"/>
+      <c r="P54" s="185"/>
+      <c r="Q54" s="185"/>
+      <c r="R54" s="185"/>
+      <c r="S54" s="185"/>
+      <c r="T54" s="185"/>
+      <c r="U54" s="185"/>
       <c r="V54" s="35"/>
-      <c r="W54" s="163"/>
-      <c r="X54" s="164"/>
-      <c r="Y54" s="164"/>
-      <c r="Z54" s="164"/>
-      <c r="AA54" s="164"/>
-      <c r="AB54" s="164"/>
-      <c r="AC54" s="164"/>
-      <c r="AD54" s="164"/>
-      <c r="AE54" s="164"/>
-      <c r="AF54" s="164"/>
-      <c r="AG54" s="165"/>
-      <c r="AI54" s="172" t="s">
+      <c r="W54" s="165"/>
+      <c r="X54" s="166"/>
+      <c r="Y54" s="166"/>
+      <c r="Z54" s="166"/>
+      <c r="AA54" s="166"/>
+      <c r="AB54" s="166"/>
+      <c r="AC54" s="166"/>
+      <c r="AD54" s="166"/>
+      <c r="AE54" s="166"/>
+      <c r="AF54" s="166"/>
+      <c r="AG54" s="167"/>
+      <c r="AI54" s="174" t="s">
         <v>26</v>
       </c>
-      <c r="AJ54" s="173"/>
-      <c r="AK54" s="173"/>
-      <c r="AL54" s="173"/>
-      <c r="AM54" s="173"/>
-      <c r="AN54" s="173"/>
-      <c r="AO54" s="173"/>
-      <c r="AP54" s="173"/>
-      <c r="AQ54" s="173"/>
-      <c r="AR54" s="173"/>
-      <c r="AS54" s="173"/>
-      <c r="AT54" s="173"/>
-      <c r="AU54" s="173"/>
-      <c r="AV54" s="173"/>
-      <c r="AW54" s="173"/>
-      <c r="AX54" s="173"/>
-      <c r="AY54" s="173"/>
-      <c r="AZ54" s="173"/>
-      <c r="BA54" s="173"/>
-      <c r="BB54" s="173"/>
-      <c r="BC54" s="174"/>
+      <c r="AJ54" s="175"/>
+      <c r="AK54" s="175"/>
+      <c r="AL54" s="175"/>
+      <c r="AM54" s="175"/>
+      <c r="AN54" s="175"/>
+      <c r="AO54" s="175"/>
+      <c r="AP54" s="175"/>
+      <c r="AQ54" s="175"/>
+      <c r="AR54" s="175"/>
+      <c r="AS54" s="175"/>
+      <c r="AT54" s="175"/>
+      <c r="AU54" s="175"/>
+      <c r="AV54" s="175"/>
+      <c r="AW54" s="175"/>
+      <c r="AX54" s="175"/>
+      <c r="AY54" s="175"/>
+      <c r="AZ54" s="175"/>
+      <c r="BA54" s="175"/>
+      <c r="BB54" s="175"/>
+      <c r="BC54" s="176"/>
     </row>
     <row r="55" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
-      <c r="W55" s="166"/>
-      <c r="X55" s="167"/>
-      <c r="Y55" s="167"/>
-      <c r="Z55" s="167"/>
-      <c r="AA55" s="167"/>
-      <c r="AB55" s="167"/>
-      <c r="AC55" s="167"/>
-      <c r="AD55" s="167"/>
-      <c r="AE55" s="167"/>
-      <c r="AF55" s="167"/>
-      <c r="AG55" s="168"/>
-      <c r="AI55" s="175"/>
-      <c r="AJ55" s="176"/>
-      <c r="AK55" s="176"/>
-      <c r="AL55" s="176"/>
-      <c r="AM55" s="176"/>
-      <c r="AN55" s="176"/>
-      <c r="AO55" s="176"/>
-      <c r="AP55" s="176"/>
-      <c r="AQ55" s="176"/>
-      <c r="AR55" s="176"/>
-      <c r="AS55" s="176"/>
-      <c r="AT55" s="176"/>
-      <c r="AU55" s="176"/>
-      <c r="AV55" s="176"/>
-      <c r="AW55" s="176"/>
-      <c r="AX55" s="176"/>
-      <c r="AY55" s="176"/>
-      <c r="AZ55" s="176"/>
-      <c r="BA55" s="176"/>
-      <c r="BB55" s="176"/>
-      <c r="BC55" s="177"/>
+      <c r="W55" s="168"/>
+      <c r="X55" s="169"/>
+      <c r="Y55" s="169"/>
+      <c r="Z55" s="169"/>
+      <c r="AA55" s="169"/>
+      <c r="AB55" s="169"/>
+      <c r="AC55" s="169"/>
+      <c r="AD55" s="169"/>
+      <c r="AE55" s="169"/>
+      <c r="AF55" s="169"/>
+      <c r="AG55" s="170"/>
+      <c r="AI55" s="177"/>
+      <c r="AJ55" s="178"/>
+      <c r="AK55" s="178"/>
+      <c r="AL55" s="178"/>
+      <c r="AM55" s="178"/>
+      <c r="AN55" s="178"/>
+      <c r="AO55" s="178"/>
+      <c r="AP55" s="178"/>
+      <c r="AQ55" s="178"/>
+      <c r="AR55" s="178"/>
+      <c r="AS55" s="178"/>
+      <c r="AT55" s="178"/>
+      <c r="AU55" s="178"/>
+      <c r="AV55" s="178"/>
+      <c r="AW55" s="178"/>
+      <c r="AX55" s="178"/>
+      <c r="AY55" s="178"/>
+      <c r="AZ55" s="178"/>
+      <c r="BA55" s="178"/>
+      <c r="BB55" s="178"/>
+      <c r="BC55" s="179"/>
     </row>
     <row r="56" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
-      <c r="W56" s="166"/>
-      <c r="X56" s="167"/>
-      <c r="Y56" s="167"/>
-      <c r="Z56" s="167"/>
-      <c r="AA56" s="167"/>
-      <c r="AB56" s="167"/>
-      <c r="AC56" s="167"/>
-      <c r="AD56" s="167"/>
-      <c r="AE56" s="167"/>
-      <c r="AF56" s="167"/>
-      <c r="AG56" s="168"/>
-      <c r="AI56" s="178" t="s">
+      <c r="W56" s="168"/>
+      <c r="X56" s="169"/>
+      <c r="Y56" s="169"/>
+      <c r="Z56" s="169"/>
+      <c r="AA56" s="169"/>
+      <c r="AB56" s="169"/>
+      <c r="AC56" s="169"/>
+      <c r="AD56" s="169"/>
+      <c r="AE56" s="169"/>
+      <c r="AF56" s="169"/>
+      <c r="AG56" s="170"/>
+      <c r="AI56" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="AJ56" s="179"/>
-      <c r="AK56" s="179"/>
-      <c r="AL56" s="179"/>
-      <c r="AM56" s="179"/>
-      <c r="AN56" s="179"/>
-      <c r="AO56" s="179"/>
-      <c r="AP56" s="179"/>
-      <c r="AQ56" s="179"/>
-      <c r="AR56" s="179"/>
-      <c r="AS56" s="179"/>
-      <c r="AT56" s="179"/>
-      <c r="AU56" s="179"/>
-      <c r="AV56" s="179"/>
-      <c r="AW56" s="179"/>
-      <c r="AX56" s="179"/>
-      <c r="AY56" s="179"/>
-      <c r="AZ56" s="179"/>
-      <c r="BA56" s="179"/>
-      <c r="BB56" s="179"/>
-      <c r="BC56" s="180"/>
+      <c r="AJ56" s="181"/>
+      <c r="AK56" s="181"/>
+      <c r="AL56" s="181"/>
+      <c r="AM56" s="181"/>
+      <c r="AN56" s="181"/>
+      <c r="AO56" s="181"/>
+      <c r="AP56" s="181"/>
+      <c r="AQ56" s="181"/>
+      <c r="AR56" s="181"/>
+      <c r="AS56" s="181"/>
+      <c r="AT56" s="181"/>
+      <c r="AU56" s="181"/>
+      <c r="AV56" s="181"/>
+      <c r="AW56" s="181"/>
+      <c r="AX56" s="181"/>
+      <c r="AY56" s="181"/>
+      <c r="AZ56" s="181"/>
+      <c r="BA56" s="181"/>
+      <c r="BB56" s="181"/>
+      <c r="BC56" s="182"/>
     </row>
     <row r="57" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="9"/>
@@ -6223,284 +6240,284 @@
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
-      <c r="W57" s="166"/>
-      <c r="X57" s="167"/>
-      <c r="Y57" s="167"/>
-      <c r="Z57" s="167"/>
-      <c r="AA57" s="167"/>
-      <c r="AB57" s="167"/>
-      <c r="AC57" s="167"/>
-      <c r="AD57" s="167"/>
-      <c r="AE57" s="167"/>
-      <c r="AF57" s="167"/>
-      <c r="AG57" s="168"/>
-      <c r="AI57" s="175"/>
-      <c r="AJ57" s="176"/>
-      <c r="AK57" s="176"/>
-      <c r="AL57" s="176"/>
-      <c r="AM57" s="176"/>
-      <c r="AN57" s="176"/>
-      <c r="AO57" s="176"/>
-      <c r="AP57" s="176"/>
-      <c r="AQ57" s="176"/>
-      <c r="AR57" s="176"/>
-      <c r="AS57" s="176"/>
-      <c r="AT57" s="176"/>
-      <c r="AU57" s="176"/>
-      <c r="AV57" s="176"/>
-      <c r="AW57" s="176"/>
-      <c r="AX57" s="176"/>
-      <c r="AY57" s="176"/>
-      <c r="AZ57" s="176"/>
-      <c r="BA57" s="176"/>
-      <c r="BB57" s="176"/>
-      <c r="BC57" s="177"/>
+      <c r="W57" s="168"/>
+      <c r="X57" s="169"/>
+      <c r="Y57" s="169"/>
+      <c r="Z57" s="169"/>
+      <c r="AA57" s="169"/>
+      <c r="AB57" s="169"/>
+      <c r="AC57" s="169"/>
+      <c r="AD57" s="169"/>
+      <c r="AE57" s="169"/>
+      <c r="AF57" s="169"/>
+      <c r="AG57" s="170"/>
+      <c r="AI57" s="177"/>
+      <c r="AJ57" s="178"/>
+      <c r="AK57" s="178"/>
+      <c r="AL57" s="178"/>
+      <c r="AM57" s="178"/>
+      <c r="AN57" s="178"/>
+      <c r="AO57" s="178"/>
+      <c r="AP57" s="178"/>
+      <c r="AQ57" s="178"/>
+      <c r="AR57" s="178"/>
+      <c r="AS57" s="178"/>
+      <c r="AT57" s="178"/>
+      <c r="AU57" s="178"/>
+      <c r="AV57" s="178"/>
+      <c r="AW57" s="178"/>
+      <c r="AX57" s="178"/>
+      <c r="AY57" s="178"/>
+      <c r="AZ57" s="178"/>
+      <c r="BA57" s="178"/>
+      <c r="BB57" s="178"/>
+      <c r="BC57" s="179"/>
     </row>
     <row r="58" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B58" s="181" t="s">
+      <c r="B58" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="181"/>
-      <c r="D58" s="181"/>
-      <c r="E58" s="181"/>
-      <c r="F58" s="181"/>
-      <c r="G58" s="181"/>
-      <c r="H58" s="181"/>
-      <c r="I58" s="181"/>
-      <c r="J58" s="181"/>
-      <c r="K58" s="181"/>
-      <c r="L58" s="181"/>
-      <c r="M58" s="181"/>
-      <c r="N58" s="181"/>
-      <c r="O58" s="181"/>
-      <c r="W58" s="169"/>
-      <c r="X58" s="170"/>
-      <c r="Y58" s="170"/>
-      <c r="Z58" s="170"/>
-      <c r="AA58" s="170"/>
-      <c r="AB58" s="170"/>
-      <c r="AC58" s="170"/>
-      <c r="AD58" s="170"/>
-      <c r="AE58" s="170"/>
-      <c r="AF58" s="170"/>
-      <c r="AG58" s="171"/>
-      <c r="AI58" s="178" t="s">
+      <c r="C58" s="183"/>
+      <c r="D58" s="183"/>
+      <c r="E58" s="183"/>
+      <c r="F58" s="183"/>
+      <c r="G58" s="183"/>
+      <c r="H58" s="183"/>
+      <c r="I58" s="183"/>
+      <c r="J58" s="183"/>
+      <c r="K58" s="183"/>
+      <c r="L58" s="183"/>
+      <c r="M58" s="183"/>
+      <c r="N58" s="183"/>
+      <c r="O58" s="183"/>
+      <c r="W58" s="171"/>
+      <c r="X58" s="172"/>
+      <c r="Y58" s="172"/>
+      <c r="Z58" s="172"/>
+      <c r="AA58" s="172"/>
+      <c r="AB58" s="172"/>
+      <c r="AC58" s="172"/>
+      <c r="AD58" s="172"/>
+      <c r="AE58" s="172"/>
+      <c r="AF58" s="172"/>
+      <c r="AG58" s="173"/>
+      <c r="AI58" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="AJ58" s="179"/>
-      <c r="AK58" s="179"/>
-      <c r="AL58" s="179"/>
-      <c r="AM58" s="179"/>
-      <c r="AN58" s="179"/>
-      <c r="AO58" s="179"/>
-      <c r="AP58" s="179"/>
-      <c r="AQ58" s="179"/>
-      <c r="AR58" s="179"/>
-      <c r="AS58" s="179"/>
-      <c r="AT58" s="179"/>
-      <c r="AU58" s="179"/>
-      <c r="AV58" s="179"/>
-      <c r="AW58" s="179"/>
-      <c r="AX58" s="179"/>
-      <c r="AY58" s="179"/>
-      <c r="AZ58" s="179"/>
-      <c r="BA58" s="179"/>
-      <c r="BB58" s="179"/>
-      <c r="BC58" s="180"/>
+      <c r="AJ58" s="181"/>
+      <c r="AK58" s="181"/>
+      <c r="AL58" s="181"/>
+      <c r="AM58" s="181"/>
+      <c r="AN58" s="181"/>
+      <c r="AO58" s="181"/>
+      <c r="AP58" s="181"/>
+      <c r="AQ58" s="181"/>
+      <c r="AR58" s="181"/>
+      <c r="AS58" s="181"/>
+      <c r="AT58" s="181"/>
+      <c r="AU58" s="181"/>
+      <c r="AV58" s="181"/>
+      <c r="AW58" s="181"/>
+      <c r="AX58" s="181"/>
+      <c r="AY58" s="181"/>
+      <c r="AZ58" s="181"/>
+      <c r="BA58" s="181"/>
+      <c r="BB58" s="181"/>
+      <c r="BC58" s="182"/>
     </row>
     <row r="59" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B59" s="148" t="s">
+      <c r="B59" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="148"/>
-      <c r="D59" s="148"/>
-      <c r="E59" s="148"/>
-      <c r="F59" s="148"/>
-      <c r="G59" s="148"/>
-      <c r="H59" s="148"/>
-      <c r="I59" s="148"/>
-      <c r="J59" s="148"/>
-      <c r="K59" s="148"/>
-      <c r="L59" s="148"/>
-      <c r="M59" s="148"/>
-      <c r="N59" s="148"/>
+      <c r="C59" s="150"/>
+      <c r="D59" s="150"/>
+      <c r="E59" s="150"/>
+      <c r="F59" s="150"/>
+      <c r="G59" s="150"/>
+      <c r="H59" s="150"/>
+      <c r="I59" s="150"/>
+      <c r="J59" s="150"/>
+      <c r="K59" s="150"/>
+      <c r="L59" s="150"/>
+      <c r="M59" s="150"/>
+      <c r="N59" s="150"/>
       <c r="O59" s="12"/>
       <c r="P59" s="13"/>
       <c r="Q59" s="13"/>
       <c r="R59" s="13"/>
-      <c r="S59" s="149" t="s">
+      <c r="S59" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="T59" s="149"/>
-      <c r="U59" s="149"/>
-      <c r="V59" s="149"/>
-      <c r="W59" s="149"/>
-      <c r="X59" s="149"/>
-      <c r="Y59" s="149"/>
-      <c r="Z59" s="149"/>
-      <c r="AA59" s="149"/>
-      <c r="AB59" s="149"/>
-      <c r="AC59" s="149"/>
-      <c r="AD59" s="149"/>
-      <c r="AE59" s="149"/>
-      <c r="AI59" s="150"/>
-      <c r="AJ59" s="151"/>
-      <c r="AK59" s="151"/>
-      <c r="AL59" s="151"/>
-      <c r="AM59" s="151"/>
-      <c r="AN59" s="151"/>
-      <c r="AO59" s="151"/>
-      <c r="AP59" s="151"/>
-      <c r="AQ59" s="151"/>
-      <c r="AR59" s="151"/>
-      <c r="AS59" s="151"/>
-      <c r="AT59" s="151"/>
-      <c r="AU59" s="151"/>
-      <c r="AV59" s="151"/>
-      <c r="AW59" s="151"/>
-      <c r="AX59" s="151"/>
-      <c r="AY59" s="151"/>
-      <c r="AZ59" s="151"/>
-      <c r="BA59" s="151"/>
-      <c r="BB59" s="151"/>
-      <c r="BC59" s="152"/>
+      <c r="T59" s="151"/>
+      <c r="U59" s="151"/>
+      <c r="V59" s="151"/>
+      <c r="W59" s="151"/>
+      <c r="X59" s="151"/>
+      <c r="Y59" s="151"/>
+      <c r="Z59" s="151"/>
+      <c r="AA59" s="151"/>
+      <c r="AB59" s="151"/>
+      <c r="AC59" s="151"/>
+      <c r="AD59" s="151"/>
+      <c r="AE59" s="151"/>
+      <c r="AI59" s="152"/>
+      <c r="AJ59" s="153"/>
+      <c r="AK59" s="153"/>
+      <c r="AL59" s="153"/>
+      <c r="AM59" s="153"/>
+      <c r="AN59" s="153"/>
+      <c r="AO59" s="153"/>
+      <c r="AP59" s="153"/>
+      <c r="AQ59" s="153"/>
+      <c r="AR59" s="153"/>
+      <c r="AS59" s="153"/>
+      <c r="AT59" s="153"/>
+      <c r="AU59" s="153"/>
+      <c r="AV59" s="153"/>
+      <c r="AW59" s="153"/>
+      <c r="AX59" s="153"/>
+      <c r="AY59" s="153"/>
+      <c r="AZ59" s="153"/>
+      <c r="BA59" s="153"/>
+      <c r="BB59" s="153"/>
+      <c r="BC59" s="154"/>
     </row>
     <row r="60" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B60" s="148"/>
-      <c r="C60" s="148"/>
-      <c r="D60" s="148"/>
-      <c r="E60" s="148"/>
-      <c r="F60" s="148"/>
-      <c r="G60" s="148"/>
-      <c r="H60" s="148"/>
-      <c r="I60" s="148"/>
-      <c r="J60" s="148"/>
-      <c r="K60" s="148"/>
-      <c r="L60" s="148"/>
-      <c r="M60" s="148"/>
-      <c r="N60" s="148"/>
+      <c r="B60" s="150"/>
+      <c r="C60" s="150"/>
+      <c r="D60" s="150"/>
+      <c r="E60" s="150"/>
+      <c r="F60" s="150"/>
+      <c r="G60" s="150"/>
+      <c r="H60" s="150"/>
+      <c r="I60" s="150"/>
+      <c r="J60" s="150"/>
+      <c r="K60" s="150"/>
+      <c r="L60" s="150"/>
+      <c r="M60" s="150"/>
+      <c r="N60" s="150"/>
       <c r="P60" s="13"/>
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
-      <c r="S60" s="149"/>
-      <c r="T60" s="149"/>
-      <c r="U60" s="149"/>
-      <c r="V60" s="149"/>
-      <c r="W60" s="149"/>
-      <c r="X60" s="149"/>
-      <c r="Y60" s="149"/>
-      <c r="Z60" s="149"/>
-      <c r="AA60" s="149"/>
-      <c r="AB60" s="149"/>
-      <c r="AC60" s="149"/>
-      <c r="AD60" s="149"/>
-      <c r="AE60" s="149"/>
+      <c r="S60" s="151"/>
+      <c r="T60" s="151"/>
+      <c r="U60" s="151"/>
+      <c r="V60" s="151"/>
+      <c r="W60" s="151"/>
+      <c r="X60" s="151"/>
+      <c r="Y60" s="151"/>
+      <c r="Z60" s="151"/>
+      <c r="AA60" s="151"/>
+      <c r="AB60" s="151"/>
+      <c r="AC60" s="151"/>
+      <c r="AD60" s="151"/>
+      <c r="AE60" s="151"/>
     </row>
     <row r="61" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="148"/>
-      <c r="C61" s="148"/>
-      <c r="D61" s="148"/>
-      <c r="E61" s="148"/>
-      <c r="F61" s="148"/>
-      <c r="G61" s="148"/>
-      <c r="H61" s="148"/>
-      <c r="I61" s="148"/>
-      <c r="J61" s="148"/>
-      <c r="K61" s="148"/>
-      <c r="L61" s="148"/>
-      <c r="M61" s="148"/>
-      <c r="N61" s="148"/>
-      <c r="S61" s="149"/>
-      <c r="T61" s="149"/>
-      <c r="U61" s="149"/>
-      <c r="V61" s="149"/>
-      <c r="W61" s="149"/>
-      <c r="X61" s="149"/>
-      <c r="Y61" s="149"/>
-      <c r="Z61" s="149"/>
-      <c r="AA61" s="149"/>
-      <c r="AB61" s="149"/>
-      <c r="AC61" s="149"/>
-      <c r="AD61" s="149"/>
-      <c r="AE61" s="149"/>
-      <c r="AI61" s="153" t="s">
+      <c r="B61" s="150"/>
+      <c r="C61" s="150"/>
+      <c r="D61" s="150"/>
+      <c r="E61" s="150"/>
+      <c r="F61" s="150"/>
+      <c r="G61" s="150"/>
+      <c r="H61" s="150"/>
+      <c r="I61" s="150"/>
+      <c r="J61" s="150"/>
+      <c r="K61" s="150"/>
+      <c r="L61" s="150"/>
+      <c r="M61" s="150"/>
+      <c r="N61" s="150"/>
+      <c r="S61" s="151"/>
+      <c r="T61" s="151"/>
+      <c r="U61" s="151"/>
+      <c r="V61" s="151"/>
+      <c r="W61" s="151"/>
+      <c r="X61" s="151"/>
+      <c r="Y61" s="151"/>
+      <c r="Z61" s="151"/>
+      <c r="AA61" s="151"/>
+      <c r="AB61" s="151"/>
+      <c r="AC61" s="151"/>
+      <c r="AD61" s="151"/>
+      <c r="AE61" s="151"/>
+      <c r="AI61" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="AJ61" s="153"/>
-      <c r="AK61" s="153"/>
-      <c r="AL61" s="153"/>
-      <c r="AM61" s="153"/>
-      <c r="AN61" s="153"/>
-      <c r="AO61" s="153"/>
-      <c r="AP61" s="153"/>
-      <c r="AQ61" s="153"/>
-      <c r="AR61" s="153"/>
-      <c r="AS61" s="153"/>
-      <c r="AT61" s="153"/>
-      <c r="AU61" s="155">
+      <c r="AJ61" s="155"/>
+      <c r="AK61" s="155"/>
+      <c r="AL61" s="155"/>
+      <c r="AM61" s="155"/>
+      <c r="AN61" s="155"/>
+      <c r="AO61" s="155"/>
+      <c r="AP61" s="155"/>
+      <c r="AQ61" s="155"/>
+      <c r="AR61" s="155"/>
+      <c r="AS61" s="155"/>
+      <c r="AT61" s="155"/>
+      <c r="AU61" s="157">
         <v>0</v>
       </c>
-      <c r="AV61" s="156"/>
-      <c r="AW61" s="156"/>
-      <c r="AX61" s="156"/>
-      <c r="AY61" s="156"/>
-      <c r="AZ61" s="156"/>
-      <c r="BA61" s="156"/>
-      <c r="BB61" s="156"/>
-      <c r="BC61" s="157"/>
+      <c r="AV61" s="158"/>
+      <c r="AW61" s="158"/>
+      <c r="AX61" s="158"/>
+      <c r="AY61" s="158"/>
+      <c r="AZ61" s="158"/>
+      <c r="BA61" s="158"/>
+      <c r="BB61" s="158"/>
+      <c r="BC61" s="159"/>
     </row>
     <row r="62" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="161" t="s">
+      <c r="B62" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="161"/>
-      <c r="D62" s="161"/>
-      <c r="E62" s="161"/>
-      <c r="F62" s="161"/>
-      <c r="G62" s="161"/>
-      <c r="H62" s="161"/>
-      <c r="I62" s="161"/>
-      <c r="J62" s="161"/>
-      <c r="K62" s="161"/>
-      <c r="L62" s="161"/>
-      <c r="M62" s="161"/>
-      <c r="N62" s="161"/>
-      <c r="S62" s="162" t="s">
+      <c r="C62" s="163"/>
+      <c r="D62" s="163"/>
+      <c r="E62" s="163"/>
+      <c r="F62" s="163"/>
+      <c r="G62" s="163"/>
+      <c r="H62" s="163"/>
+      <c r="I62" s="163"/>
+      <c r="J62" s="163"/>
+      <c r="K62" s="163"/>
+      <c r="L62" s="163"/>
+      <c r="M62" s="163"/>
+      <c r="N62" s="163"/>
+      <c r="S62" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="T62" s="162"/>
-      <c r="U62" s="162"/>
-      <c r="V62" s="162"/>
-      <c r="W62" s="162"/>
-      <c r="X62" s="162"/>
-      <c r="Y62" s="162"/>
-      <c r="Z62" s="162"/>
-      <c r="AA62" s="162"/>
-      <c r="AB62" s="162"/>
-      <c r="AC62" s="162"/>
-      <c r="AD62" s="162"/>
-      <c r="AE62" s="162"/>
-      <c r="AI62" s="154"/>
-      <c r="AJ62" s="154"/>
-      <c r="AK62" s="154"/>
-      <c r="AL62" s="154"/>
-      <c r="AM62" s="154"/>
-      <c r="AN62" s="154"/>
-      <c r="AO62" s="154"/>
-      <c r="AP62" s="154"/>
-      <c r="AQ62" s="154"/>
-      <c r="AR62" s="154"/>
-      <c r="AS62" s="154"/>
-      <c r="AT62" s="154"/>
-      <c r="AU62" s="158"/>
-      <c r="AV62" s="159"/>
-      <c r="AW62" s="159"/>
-      <c r="AX62" s="159"/>
-      <c r="AY62" s="159"/>
-      <c r="AZ62" s="159"/>
-      <c r="BA62" s="159"/>
-      <c r="BB62" s="159"/>
-      <c r="BC62" s="160"/>
+      <c r="T62" s="164"/>
+      <c r="U62" s="164"/>
+      <c r="V62" s="164"/>
+      <c r="W62" s="164"/>
+      <c r="X62" s="164"/>
+      <c r="Y62" s="164"/>
+      <c r="Z62" s="164"/>
+      <c r="AA62" s="164"/>
+      <c r="AB62" s="164"/>
+      <c r="AC62" s="164"/>
+      <c r="AD62" s="164"/>
+      <c r="AE62" s="164"/>
+      <c r="AI62" s="156"/>
+      <c r="AJ62" s="156"/>
+      <c r="AK62" s="156"/>
+      <c r="AL62" s="156"/>
+      <c r="AM62" s="156"/>
+      <c r="AN62" s="156"/>
+      <c r="AO62" s="156"/>
+      <c r="AP62" s="156"/>
+      <c r="AQ62" s="156"/>
+      <c r="AR62" s="156"/>
+      <c r="AS62" s="156"/>
+      <c r="AT62" s="156"/>
+      <c r="AU62" s="160"/>
+      <c r="AV62" s="161"/>
+      <c r="AW62" s="161"/>
+      <c r="AX62" s="161"/>
+      <c r="AY62" s="161"/>
+      <c r="AZ62" s="161"/>
+      <c r="BA62" s="161"/>
+      <c r="BB62" s="161"/>
+      <c r="BC62" s="162"/>
     </row>
     <row r="63" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
